--- a/DB設計/table_definition20170630.xlsx
+++ b/DB設計/table_definition20170630.xlsx
@@ -3676,8 +3676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1071"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B90" workbookViewId="0">
-      <selection activeCell="K116" sqref="K116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>

--- a/DB設計/table_definition20170630.xlsx
+++ b/DB設計/table_definition20170630.xlsx
@@ -2752,8 +2752,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="197">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3092,7 +3096,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="197">
+  <cellStyles count="201">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -3191,6 +3195,8 @@
     <cellStyle name="ハイパーリンク" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -3290,6 +3296,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="200" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3676,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1071"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>

--- a/DB設計/table_definition20170630.xlsx
+++ b/DB設計/table_definition20170630.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="28720" yWindow="-3600" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DB定義書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A65" authorId="0">
+    <comment ref="A67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A78" authorId="0">
+    <comment ref="A81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="404">
   <si>
     <t>使用データベース</t>
   </si>
@@ -2113,12 +2113,302 @@
     <t>ユーザーフラグ</t>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>ニュースID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ニュース（コメント内容）</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>⑰テーブル名 ; news</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>e_access</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>アクセス</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>⑱中間テーブル名 ; joins</t>
+    <rPh sb="1" eb="3">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>event_id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ニュースタイトル</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ニューステーブル</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ニュースを登録する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>参加表明テーブル</t>
+    <rPh sb="0" eb="4">
+      <t>サンカヒョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>参加表明を登録する</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>joins</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>中間テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>utf8_general_ci</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>news_id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>news_title</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>news_comment</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>summer</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fall </t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>winter</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>flower</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>sakura</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>food_drink</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>alcohol</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>strange_festival</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>100years_lasting</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>春カテゴリー</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>夏カテゴリー</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>秋カテゴリー</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>冬カテゴリー</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>花カテゴリー</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>桜カテゴリー</t>
+    <rPh sb="0" eb="1">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>飲食カテゴリー</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>酒カテゴリー</t>
+    <rPh sb="0" eb="1">
+      <t>サケ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>奇祭カテゴリー</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>１００年以上続く祭カテゴリー</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>50years_lasting</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>50年以上続く祭カテゴリー</t>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>inquiry</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>navigation</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ナビして欲しい</t>
+    <rPh sb="4" eb="5">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>教えて欲しい</t>
+    <rPh sb="0" eb="1">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>accompany</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>いっしょに遊ぼう</t>
+    <rPh sb="5" eb="6">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2268,6 +2558,12 @@
       <name val="Yu gothic"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Yu gothic"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2313,7 +2609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -2751,8 +3047,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="201">
+  <cellStyleXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2954,8 +3265,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3074,9 +3419,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3084,6 +3426,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3096,7 +3454,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="201">
+  <cellStyles count="235">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -3197,6 +3555,23 @@
     <cellStyle name="ハイパーリンク" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -3298,6 +3673,23 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="234" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3316,7 +3708,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3682,10 +4074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1071"/>
+  <dimension ref="A1:AB1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:A82"/>
+    <sheetView tabSelected="1" topLeftCell="E80" workbookViewId="0">
+      <selection activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -3697,17 +4089,21 @@
     <col min="5" max="5" width="20.5" style="34" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="34" customWidth="1"/>
     <col min="7" max="13" width="9.625" style="34" customWidth="1"/>
-    <col min="14" max="27" width="9.875" style="34" customWidth="1"/>
-    <col min="28" max="16384" width="13.5" style="34"/>
+    <col min="14" max="22" width="9.875" style="34" customWidth="1"/>
+    <col min="23" max="23" width="11" style="34" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" style="103" customWidth="1"/>
+    <col min="25" max="25" width="11.75" style="34" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.875" style="34" customWidth="1"/>
+    <col min="29" max="16384" width="13.5" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:24" ht="27.75" customHeight="1" thickBot="1">
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
     </row>
-    <row r="2" spans="1:6" ht="27.75" customHeight="1">
+    <row r="2" spans="1:24" ht="27.75" customHeight="1">
       <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +4115,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" thickBot="1">
+    <row r="3" spans="1:24" ht="21" customHeight="1" thickBot="1">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -3727,7 +4123,7 @@
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
     </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1">
+    <row r="4" spans="1:24" ht="27" customHeight="1">
       <c r="A4" s="63"/>
       <c r="B4" s="64" t="s">
         <v>3</v>
@@ -3741,8 +4137,8 @@
       </c>
       <c r="F4" s="36"/>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A5" s="109">
+    <row r="5" spans="1:24" ht="19.5" customHeight="1">
+      <c r="A5" s="122">
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -3757,8 +4153,8 @@
       <c r="E5" s="24"/>
       <c r="F5" s="36"/>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A6" s="104">
+    <row r="6" spans="1:24" ht="19.5" customHeight="1">
+      <c r="A6" s="122">
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -3773,8 +4169,8 @@
       <c r="E6" s="24"/>
       <c r="F6" s="36"/>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A7" s="104">
+    <row r="7" spans="1:24" ht="19.5" customHeight="1">
+      <c r="A7" s="122">
         <v>3</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -3789,8 +4185,8 @@
       <c r="E7" s="24"/>
       <c r="F7" s="36"/>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A8" s="104">
+    <row r="8" spans="1:24" ht="19.5" customHeight="1">
+      <c r="A8" s="122">
         <v>4</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -3805,8 +4201,8 @@
       <c r="E8" s="67"/>
       <c r="F8" s="36"/>
     </row>
-    <row r="9" spans="1:6" s="102" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="109">
+    <row r="9" spans="1:24" s="102" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="122">
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -3822,9 +4218,10 @@
         <v>258</v>
       </c>
       <c r="F9" s="36"/>
-    </row>
-    <row r="10" spans="1:6" s="102" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A10" s="109">
+      <c r="X9" s="103"/>
+    </row>
+    <row r="10" spans="1:24" s="102" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A10" s="122">
         <v>6</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -3838,9 +4235,10 @@
       </c>
       <c r="E10" s="67"/>
       <c r="F10" s="36"/>
-    </row>
-    <row r="11" spans="1:6" s="102" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A11" s="109">
+      <c r="X10" s="103"/>
+    </row>
+    <row r="11" spans="1:24" s="102" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A11" s="122">
         <v>7</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -3854,9 +4252,10 @@
       </c>
       <c r="E11" s="67"/>
       <c r="F11" s="36"/>
-    </row>
-    <row r="12" spans="1:6" s="102" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A12" s="104">
+      <c r="X11" s="103"/>
+    </row>
+    <row r="12" spans="1:24" s="102" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A12" s="122">
         <v>8</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -3872,9 +4271,10 @@
         <v>258</v>
       </c>
       <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A13" s="104">
+      <c r="X12" s="103"/>
+    </row>
+    <row r="13" spans="1:24" ht="19.5" customHeight="1">
+      <c r="A13" s="122">
         <v>9</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -3891,8 +4291,8 @@
       </c>
       <c r="F13" s="36"/>
     </row>
-    <row r="14" spans="1:6" s="102" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A14" s="109">
+    <row r="14" spans="1:24" s="102" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A14" s="122">
         <v>10</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -3906,9 +4306,10 @@
       </c>
       <c r="E14" s="67"/>
       <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A15" s="104">
+      <c r="X14" s="103"/>
+    </row>
+    <row r="15" spans="1:24" ht="19.5" customHeight="1">
+      <c r="A15" s="122">
         <v>11</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -3925,8 +4326,8 @@
       </c>
       <c r="F15" s="36"/>
     </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A16" s="104">
+    <row r="16" spans="1:24" ht="19.5" customHeight="1">
+      <c r="A16" s="122">
         <v>12</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -3942,7 +4343,7 @@
       <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A17" s="104">
+      <c r="A17" s="122">
         <v>13</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -3960,7 +4361,7 @@
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A18" s="104">
+      <c r="A18" s="122">
         <v>14</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -3978,7 +4379,7 @@
       <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:13" ht="21" customHeight="1">
-      <c r="A19" s="104">
+      <c r="A19" s="122">
         <v>15</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -3993,202 +4394,186 @@
       <c r="E19" s="67"/>
       <c r="F19" s="36"/>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1" thickBot="1">
-      <c r="A20" s="108">
+    <row r="20" spans="1:13" ht="21" customHeight="1">
+      <c r="A20" s="122">
         <v>16</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="68"/>
+      <c r="E20" s="67"/>
       <c r="F20" s="36"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+    <row r="21" spans="1:13" s="103" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="108">
+        <v>17</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" s="67"/>
       <c r="F21" s="36"/>
     </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1" thickBot="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+    <row r="22" spans="1:13" s="103" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A22" s="107">
+        <v>18</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>368</v>
+      </c>
       <c r="F22" s="36"/>
     </row>
-    <row r="23" spans="1:13" ht="27" customHeight="1">
-      <c r="A23" s="70" t="s">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:13" ht="21" customHeight="1" thickBot="1">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="1:13" ht="27" customHeight="1">
+      <c r="A25" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="73"/>
-    </row>
-    <row r="24" spans="1:13" ht="24" customHeight="1">
-      <c r="A24" s="17" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="73"/>
+    </row>
+    <row r="26" spans="1:13" ht="24" customHeight="1">
+      <c r="A26" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B26" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I26" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M26" s="20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="24" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="22">
-        <v>11</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="24"/>
-    </row>
-    <row r="26" spans="1:13" s="103" customFormat="1" ht="24" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="22">
-        <v>11</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:13" ht="24" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>42</v>
+        <v>97</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="22">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="E27" s="23"/>
-      <c r="F27" s="22" t="s">
-        <v>43</v>
-      </c>
+      <c r="F27" s="22"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>84</v>
+      </c>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="24"/>
     </row>
-    <row r="28" spans="1:13" ht="24" customHeight="1">
+    <row r="28" spans="1:13" s="103" customFormat="1" ht="24" customHeight="1">
       <c r="A28" s="21" t="s">
-        <v>100</v>
+        <v>352</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>42</v>
+        <v>353</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="D28" s="22">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="E28" s="23"/>
-      <c r="F28" s="22" t="s">
-        <v>43</v>
-      </c>
+      <c r="F28" s="22"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="22"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="24"/>
     </row>
-    <row r="29" spans="1:13" s="103" customFormat="1" ht="24" customHeight="1">
+    <row r="29" spans="1:13" ht="24" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>348</v>
+        <v>99</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>349</v>
+        <v>89</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>42</v>
@@ -4203,17 +4588,17 @@
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
-      <c r="J29" s="22"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="24"/>
     </row>
     <row r="30" spans="1:13" ht="24" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>44</v>
+        <v>100</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>42</v>
@@ -4228,17 +4613,17 @@
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="24"/>
     </row>
-    <row r="31" spans="1:13" ht="24" customHeight="1">
+    <row r="31" spans="1:13" s="103" customFormat="1" ht="24" customHeight="1">
       <c r="A31" s="21" t="s">
-        <v>101</v>
+        <v>348</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>91</v>
+        <v>349</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>42</v>
@@ -4253,17 +4638,17 @@
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:13" ht="24" customHeight="1">
       <c r="A32" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>92</v>
+        <v>44</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>42</v>
@@ -4271,12 +4656,12 @@
       <c r="D32" s="22">
         <v>255</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="22" t="s">
         <v>43</v>
       </c>
       <c r="G32" s="23"/>
-      <c r="H32" s="22"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
@@ -4285,10 +4670,10 @@
     </row>
     <row r="33" spans="1:14" ht="24" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>42</v>
@@ -4296,12 +4681,12 @@
       <c r="D33" s="22">
         <v>255</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="22" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="23"/>
-      <c r="H33" s="22"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
@@ -4310,10 +4695,10 @@
     </row>
     <row r="34" spans="1:14" ht="24" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>42</v>
@@ -4321,14 +4706,12 @@
       <c r="D34" s="22">
         <v>255</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="22" t="s">
         <v>43</v>
       </c>
       <c r="G34" s="23"/>
-      <c r="H34" s="22" t="b">
-        <v>1</v>
-      </c>
+      <c r="H34" s="22"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
@@ -4337,10 +4720,10 @@
     </row>
     <row r="35" spans="1:14" ht="24" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>294</v>
+        <v>103</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>42</v>
@@ -4353,9 +4736,7 @@
         <v>43</v>
       </c>
       <c r="G35" s="23"/>
-      <c r="H35" s="23" t="b">
-        <v>1</v>
-      </c>
+      <c r="H35" s="22"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
@@ -4364,198 +4745,202 @@
     </row>
     <row r="36" spans="1:14" ht="24" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="22"/>
+        <v>42</v>
+      </c>
+      <c r="D36" s="22">
+        <v>255</v>
+      </c>
       <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="F36" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="H36" s="22" t="b">
+        <v>1</v>
+      </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:14" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A37" s="25" t="s">
+    <row r="37" spans="1:14" ht="24" customHeight="1">
+      <c r="A37" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="22">
+        <v>255</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="1:14" ht="24" customHeight="1">
+      <c r="A38" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
+    </row>
+    <row r="39" spans="1:14" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A39" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B39" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C39" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="27"/>
-    </row>
-    <row r="38" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-    </row>
-    <row r="39" spans="1:14" ht="27" customHeight="1">
-      <c r="A39" s="70" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+    </row>
+    <row r="41" spans="1:14" ht="27" customHeight="1">
+      <c r="A41" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="61"/>
-    </row>
-    <row r="40" spans="1:14" ht="24" customHeight="1">
-      <c r="A40" s="17" t="s">
+      <c r="B41" s="71"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="61"/>
+    </row>
+    <row r="42" spans="1:14" ht="24" customHeight="1">
+      <c r="A42" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B42" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E42" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F42" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H42" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I42" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="J42" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K40" s="18" t="s">
+      <c r="K42" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L40" s="18" t="s">
+      <c r="L42" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="20" t="s">
+      <c r="M42" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="N40" s="82"/>
-    </row>
-    <row r="41" spans="1:14" ht="24" customHeight="1">
-      <c r="A41" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="22">
-        <v>11</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="61"/>
-    </row>
-    <row r="42" spans="1:14" ht="24" customHeight="1">
-      <c r="A42" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="22">
-        <v>255</v>
-      </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="24"/>
+      <c r="N42" s="82"/>
     </row>
     <row r="43" spans="1:14" ht="24" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>42</v>
+        <v>347</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="D43" s="22">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="E43" s="23"/>
-      <c r="F43" s="22" t="s">
-        <v>43</v>
-      </c>
+      <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="I43" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="24"/>
+      <c r="N43" s="61"/>
     </row>
     <row r="44" spans="1:14" ht="24" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>42</v>
@@ -4577,10 +4962,10 @@
     </row>
     <row r="45" spans="1:14" ht="24" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>44</v>
+        <v>159</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="C45" s="23" t="s">
         <v>42</v>
@@ -4602,10 +4987,10 @@
     </row>
     <row r="46" spans="1:14" ht="24" customHeight="1">
       <c r="A46" s="21" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>42</v>
@@ -4627,10 +5012,10 @@
     </row>
     <row r="47" spans="1:14" ht="24" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="B47" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>42</v>
@@ -4652,10 +5037,10 @@
     </row>
     <row r="48" spans="1:14" ht="24" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>42</v>
@@ -4675,12 +5060,12 @@
       <c r="L48" s="23"/>
       <c r="M48" s="24"/>
     </row>
-    <row r="49" spans="1:25" ht="24" customHeight="1">
+    <row r="49" spans="1:19" ht="24" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>42</v>
@@ -4700,12 +5085,12 @@
       <c r="L49" s="23"/>
       <c r="M49" s="24"/>
     </row>
-    <row r="50" spans="1:25" ht="24" customHeight="1">
+    <row r="50" spans="1:19" ht="24" customHeight="1">
       <c r="A50" s="21" t="s">
-        <v>310</v>
+        <v>163</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="C50" s="23" t="s">
         <v>42</v>
@@ -4725,12 +5110,12 @@
       <c r="L50" s="23"/>
       <c r="M50" s="24"/>
     </row>
-    <row r="51" spans="1:25" ht="24" customHeight="1">
+    <row r="51" spans="1:19" ht="24" customHeight="1">
       <c r="A51" s="21" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C51" s="23" t="s">
         <v>42</v>
@@ -4743,21 +5128,19 @@
         <v>43</v>
       </c>
       <c r="G51" s="23"/>
-      <c r="H51" s="22" t="b">
-        <v>1</v>
-      </c>
+      <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
       <c r="M51" s="24"/>
     </row>
-    <row r="52" spans="1:25" ht="24" customHeight="1">
+    <row r="52" spans="1:19" ht="24" customHeight="1">
       <c r="A52" s="21" t="s">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>42</v>
@@ -4770,216 +5153,214 @@
         <v>43</v>
       </c>
       <c r="G52" s="23"/>
-      <c r="H52" s="23" t="b">
-        <v>1</v>
-      </c>
+      <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
       <c r="M52" s="24"/>
     </row>
-    <row r="53" spans="1:25" ht="24" customHeight="1">
+    <row r="53" spans="1:19" ht="24" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="22"/>
+        <v>42</v>
+      </c>
+      <c r="D53" s="22">
+        <v>255</v>
+      </c>
       <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
+      <c r="F53" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="H53" s="22" t="b">
+        <v>1</v>
+      </c>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
       <c r="M53" s="24"/>
     </row>
-    <row r="54" spans="1:25" ht="24" customHeight="1" thickBot="1">
+    <row r="54" spans="1:19" ht="24" customHeight="1">
       <c r="A54" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="22">
+        <v>255</v>
+      </c>
+      <c r="E54" s="23"/>
+      <c r="F54" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="24"/>
+    </row>
+    <row r="55" spans="1:19" ht="24" customHeight="1">
+      <c r="A55" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="24"/>
+    </row>
+    <row r="56" spans="1:19" ht="24" customHeight="1" thickBot="1">
+      <c r="A56" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B56" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C56" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="27"/>
-    </row>
-    <row r="55" spans="1:25" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-    </row>
-    <row r="56" spans="1:25" ht="27" customHeight="1">
-      <c r="A56" s="70" t="s">
+      <c r="D56" s="42"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="27"/>
+    </row>
+    <row r="57" spans="1:19" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+    </row>
+    <row r="58" spans="1:19" ht="27" customHeight="1">
+      <c r="A58" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="73"/>
-    </row>
-    <row r="57" spans="1:25" ht="24" customHeight="1">
-      <c r="A57" s="17" t="s">
+      <c r="B58" s="71"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="73"/>
+    </row>
+    <row r="59" spans="1:19" ht="24" customHeight="1">
+      <c r="A59" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B59" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C59" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D59" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E59" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F59" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G59" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H59" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I57" s="19" t="s">
+      <c r="I59" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J57" s="18" t="s">
+      <c r="J59" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="18" t="s">
+      <c r="K59" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L57" s="18" t="s">
+      <c r="L59" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M57" s="20" t="s">
+      <c r="M59" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="24" customHeight="1">
-      <c r="A58" s="21" t="s">
+    <row r="60" spans="1:19" ht="24" customHeight="1">
+      <c r="A60" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B60" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C60" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D60" s="22">
         <v>11</v>
-      </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J58" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="24"/>
-    </row>
-    <row r="59" spans="1:25" ht="24" customHeight="1">
-      <c r="A59" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="22">
-        <v>11</v>
-      </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L59" s="23"/>
-      <c r="M59" s="24"/>
-    </row>
-    <row r="60" spans="1:25" ht="24" customHeight="1">
-      <c r="A60" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="23">
-        <v>255</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="22"/>
+      <c r="I60" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="24"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="61"/>
-      <c r="S60" s="61"/>
-    </row>
-    <row r="61" spans="1:25" ht="24" customHeight="1">
+    </row>
+    <row r="61" spans="1:19" ht="24" customHeight="1">
       <c r="A61" s="21" t="s">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61" s="23">
-        <v>255</v>
+        <v>201</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="22">
+        <v>11</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
@@ -4987,25 +5368,21 @@
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
-      <c r="K61" s="22"/>
+      <c r="K61" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="L61" s="23"/>
       <c r="M61" s="24"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="61"/>
-      <c r="S61" s="61"/>
-    </row>
-    <row r="62" spans="1:25" ht="24" customHeight="1">
+    </row>
+    <row r="62" spans="1:19" ht="24" customHeight="1">
       <c r="A62" s="21" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="D62" s="23">
         <v>255</v>
@@ -5026,28 +5403,26 @@
       <c r="R62" s="61"/>
       <c r="S62" s="61"/>
     </row>
-    <row r="63" spans="1:25" ht="24" customHeight="1">
+    <row r="63" spans="1:19" ht="24" customHeight="1">
       <c r="A63" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="D63" s="23">
         <v>255</v>
       </c>
       <c r="E63" s="23"/>
-      <c r="F63" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="29"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
+      <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="24"/>
       <c r="N63" s="61"/>
@@ -5057,48 +5432,41 @@
       <c r="R63" s="61"/>
       <c r="S63" s="61"/>
     </row>
-    <row r="64" spans="1:25" ht="24" customHeight="1">
+    <row r="64" spans="1:19" ht="24" customHeight="1">
       <c r="A64" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="D64" s="23">
         <v>255</v>
       </c>
       <c r="E64" s="23"/>
-      <c r="F64" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="32"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
       <c r="K64" s="22"/>
-      <c r="L64" s="31"/>
+      <c r="L64" s="23"/>
       <c r="M64" s="24"/>
-      <c r="N64" s="60"/>
-      <c r="O64" s="60"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
       <c r="P64" s="61"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="60"/>
-      <c r="T64" s="36"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="36"/>
-    </row>
-    <row r="65" spans="1:25" ht="24" customHeight="1">
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+    </row>
+    <row r="65" spans="1:26" ht="24" customHeight="1">
       <c r="A65" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>42</v>
@@ -5110,31 +5478,26 @@
       <c r="F65" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G65" s="31"/>
-      <c r="H65" s="32"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="23"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="31"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
       <c r="M65" s="24"/>
-      <c r="N65" s="60"/>
-      <c r="O65" s="60"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
       <c r="P65" s="61"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="60"/>
-      <c r="S65" s="60"/>
-      <c r="T65" s="36"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="36"/>
-    </row>
-    <row r="66" spans="1:25" ht="24" customHeight="1">
-      <c r="A66" s="28" t="s">
-        <v>301</v>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+    </row>
+    <row r="66" spans="1:26" ht="24" customHeight="1">
+      <c r="A66" s="21" t="s">
+        <v>299</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>42</v>
@@ -5146,26 +5509,32 @@
       <c r="F66" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G66" s="37"/>
-      <c r="H66" s="23"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="32"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="31"/>
       <c r="M66" s="24"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="60"/>
       <c r="P66" s="61"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="61"/>
-      <c r="S66" s="61"/>
-    </row>
-    <row r="67" spans="1:25" ht="24" customHeight="1">
+      <c r="Q66" s="62"/>
+      <c r="R66" s="60"/>
+      <c r="S66" s="60"/>
+      <c r="T66" s="36"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="36"/>
+    </row>
+    <row r="67" spans="1:26" ht="24" customHeight="1">
       <c r="A67" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>42</v>
@@ -5177,26 +5546,32 @@
       <c r="F67" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="32"/>
       <c r="I67" s="23"/>
       <c r="J67" s="23"/>
       <c r="K67" s="22"/>
-      <c r="L67" s="23"/>
+      <c r="L67" s="31"/>
       <c r="M67" s="24"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="61"/>
+      <c r="N67" s="60"/>
+      <c r="O67" s="60"/>
       <c r="P67" s="61"/>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="61"/>
-      <c r="S67" s="61"/>
-    </row>
-    <row r="68" spans="1:25" ht="24" customHeight="1">
-      <c r="A68" s="21" t="s">
-        <v>303</v>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="60"/>
+      <c r="S67" s="60"/>
+      <c r="T67" s="36"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="36"/>
+      <c r="Z67" s="36"/>
+    </row>
+    <row r="68" spans="1:26" ht="24" customHeight="1">
+      <c r="A68" s="28" t="s">
+        <v>301</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>42</v>
@@ -5208,11 +5583,11 @@
       <c r="F68" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G68" s="23"/>
+      <c r="G68" s="37"/>
       <c r="H68" s="23"/>
       <c r="I68" s="23"/>
       <c r="J68" s="23"/>
-      <c r="K68" s="22"/>
+      <c r="K68" s="23"/>
       <c r="L68" s="23"/>
       <c r="M68" s="24"/>
       <c r="N68" s="61"/>
@@ -5222,57 +5597,59 @@
       <c r="R68" s="61"/>
       <c r="S68" s="61"/>
     </row>
-    <row r="69" spans="1:25" ht="24" customHeight="1">
-      <c r="A69" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="B69" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" s="23" t="s">
+    <row r="69" spans="1:26" s="114" customFormat="1" ht="24" customHeight="1">
+      <c r="A69" s="115" t="s">
+        <v>357</v>
+      </c>
+      <c r="B69" s="116" t="s">
+        <v>358</v>
+      </c>
+      <c r="C69" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" s="117">
+        <v>30000</v>
+      </c>
+      <c r="E69" s="117"/>
+      <c r="F69" s="117" t="s">
+        <v>369</v>
+      </c>
+      <c r="G69" s="118"/>
+      <c r="H69" s="117"/>
+      <c r="I69" s="117"/>
+      <c r="J69" s="117"/>
+      <c r="K69" s="117"/>
+      <c r="L69" s="117"/>
+      <c r="M69" s="119"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="120"/>
+      <c r="P69" s="120"/>
+      <c r="Q69" s="120"/>
+      <c r="R69" s="120"/>
+      <c r="S69" s="120"/>
+    </row>
+    <row r="70" spans="1:26" ht="24" customHeight="1">
+      <c r="A70" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D70" s="23">
         <v>255</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23" t="s">
+      <c r="E70" s="23"/>
+      <c r="F70" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="61"/>
-      <c r="S69" s="61"/>
-    </row>
-    <row r="70" spans="1:25" ht="24" customHeight="1">
-      <c r="A70" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D70" s="23">
-        <v>30000</v>
-      </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="29"/>
+      <c r="G70" s="23"/>
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
+      <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="24"/>
       <c r="N70" s="61"/>
@@ -5282,12 +5659,12 @@
       <c r="R70" s="61"/>
       <c r="S70" s="61"/>
     </row>
-    <row r="71" spans="1:25" ht="24" customHeight="1">
+    <row r="71" spans="1:26" ht="24" customHeight="1">
       <c r="A71" s="21" t="s">
-        <v>191</v>
+        <v>303</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C71" s="23" t="s">
         <v>42</v>
@@ -5299,47 +5676,42 @@
       <c r="F71" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G71" s="31"/>
-      <c r="H71" s="23" t="b">
-        <v>1</v>
-      </c>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
       <c r="K71" s="22"/>
-      <c r="L71" s="31"/>
+      <c r="L71" s="23"/>
       <c r="M71" s="24"/>
-      <c r="N71" s="60"/>
-      <c r="O71" s="60"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
       <c r="P71" s="61"/>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="60"/>
-      <c r="S71" s="60"/>
-      <c r="T71" s="36"/>
-      <c r="V71" s="35"/>
-      <c r="W71" s="36"/>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="36"/>
-    </row>
-    <row r="72" spans="1:25" ht="24" customHeight="1">
-      <c r="A72" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>175</v>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
+      <c r="S71" s="61"/>
+    </row>
+    <row r="72" spans="1:26" ht="24" customHeight="1">
+      <c r="A72" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>202</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="D72" s="23">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="37"/>
+      <c r="F72" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" s="23"/>
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
+      <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="24"/>
       <c r="N72" s="61"/>
@@ -5349,28 +5721,26 @@
       <c r="R72" s="61"/>
       <c r="S72" s="61"/>
     </row>
-    <row r="73" spans="1:25" ht="24" customHeight="1">
+    <row r="73" spans="1:26" ht="24" customHeight="1">
       <c r="A73" s="21" t="s">
-        <v>187</v>
+        <v>305</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="D73" s="23">
-        <v>11</v>
+        <v>30000</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23" t="b">
-        <v>1</v>
-      </c>
+      <c r="G73" s="29"/>
+      <c r="H73" s="23"/>
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
-      <c r="K73" s="22"/>
+      <c r="K73" s="23"/>
       <c r="L73" s="23"/>
       <c r="M73" s="24"/>
       <c r="N73" s="61"/>
@@ -5380,59 +5750,65 @@
       <c r="R73" s="61"/>
       <c r="S73" s="61"/>
     </row>
-    <row r="74" spans="1:25" ht="24" customHeight="1">
+    <row r="74" spans="1:26" ht="24" customHeight="1">
       <c r="A74" s="21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D74" s="23">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
+      <c r="F74" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" s="31"/>
       <c r="H74" s="23" t="b">
         <v>1</v>
       </c>
       <c r="I74" s="23"/>
       <c r="J74" s="23"/>
       <c r="K74" s="22"/>
-      <c r="L74" s="23"/>
+      <c r="L74" s="31"/>
       <c r="M74" s="24"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="61"/>
+      <c r="N74" s="60"/>
+      <c r="O74" s="60"/>
       <c r="P74" s="61"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="61"/>
-      <c r="S74" s="61"/>
-    </row>
-    <row r="75" spans="1:25" ht="24" customHeight="1">
-      <c r="A75" s="21" t="s">
-        <v>189</v>
+      <c r="Q74" s="62"/>
+      <c r="R74" s="60"/>
+      <c r="S74" s="60"/>
+      <c r="T74" s="36"/>
+      <c r="V74" s="35"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="36"/>
+      <c r="Z74" s="36"/>
+    </row>
+    <row r="75" spans="1:26" ht="24" customHeight="1">
+      <c r="A75" s="28" t="s">
+        <v>190</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="D75" s="23">
         <v>11</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23" t="b">
-        <v>1</v>
-      </c>
+      <c r="G75" s="37"/>
+      <c r="H75" s="23"/>
       <c r="I75" s="23"/>
       <c r="J75" s="23"/>
-      <c r="K75" s="22"/>
+      <c r="K75" s="23"/>
       <c r="L75" s="23"/>
       <c r="M75" s="24"/>
       <c r="N75" s="61"/>
@@ -5442,28 +5818,28 @@
       <c r="R75" s="61"/>
       <c r="S75" s="61"/>
     </row>
-    <row r="76" spans="1:25" ht="24" customHeight="1">
+    <row r="76" spans="1:26" ht="24" customHeight="1">
       <c r="A76" s="21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="D76" s="23">
         <v>11</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
-      <c r="G76" s="29"/>
+      <c r="G76" s="23"/>
       <c r="H76" s="23" t="b">
         <v>1</v>
       </c>
       <c r="I76" s="23"/>
       <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
+      <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="24"/>
       <c r="N76" s="61"/>
@@ -5473,96 +5849,84 @@
       <c r="R76" s="61"/>
       <c r="S76" s="61"/>
     </row>
-    <row r="77" spans="1:25" ht="24" customHeight="1">
+    <row r="77" spans="1:26" ht="24" customHeight="1">
       <c r="A77" s="21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="D77" s="23">
         <v>11</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
-      <c r="G77" s="31"/>
+      <c r="G77" s="23"/>
       <c r="H77" s="23" t="b">
         <v>1</v>
       </c>
       <c r="I77" s="23"/>
       <c r="J77" s="23"/>
       <c r="K77" s="22"/>
-      <c r="L77" s="31"/>
+      <c r="L77" s="23"/>
       <c r="M77" s="24"/>
-      <c r="N77" s="60"/>
-      <c r="O77" s="60"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="61"/>
       <c r="P77" s="61"/>
-      <c r="Q77" s="62"/>
-      <c r="R77" s="60"/>
-      <c r="S77" s="60"/>
-      <c r="T77" s="36"/>
-      <c r="V77" s="35"/>
-      <c r="W77" s="36"/>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="36"/>
-    </row>
-    <row r="78" spans="1:25" ht="24" customHeight="1">
+      <c r="Q77" s="61"/>
+      <c r="R77" s="61"/>
+      <c r="S77" s="61"/>
+    </row>
+    <row r="78" spans="1:26" ht="24" customHeight="1">
       <c r="A78" s="21" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="D78" s="23">
         <v>11</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
-      <c r="G78" s="31"/>
+      <c r="G78" s="23"/>
       <c r="H78" s="23" t="b">
         <v>1</v>
       </c>
       <c r="I78" s="23"/>
       <c r="J78" s="23"/>
       <c r="K78" s="22"/>
-      <c r="L78" s="31"/>
+      <c r="L78" s="23"/>
       <c r="M78" s="24"/>
-      <c r="N78" s="60"/>
-      <c r="O78" s="60"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
       <c r="P78" s="61"/>
-      <c r="Q78" s="62"/>
-      <c r="R78" s="60"/>
-      <c r="S78" s="60"/>
-      <c r="T78" s="36"/>
-      <c r="V78" s="35"/>
-      <c r="W78" s="36"/>
-      <c r="X78" s="36"/>
-      <c r="Y78" s="36"/>
-    </row>
-    <row r="79" spans="1:25" ht="24" customHeight="1">
-      <c r="A79" s="28" t="s">
-        <v>183</v>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
+      <c r="S78" s="61"/>
+    </row>
+    <row r="79" spans="1:26" ht="24" customHeight="1">
+      <c r="A79" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" s="57">
-        <v>255</v>
+        <v>179</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="23">
+        <v>11</v>
       </c>
       <c r="E79" s="23"/>
-      <c r="F79" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G79" s="37"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="29"/>
       <c r="H79" s="23" t="b">
         <v>1</v>
       </c>
@@ -5578,105 +5942,139 @@
       <c r="R79" s="61"/>
       <c r="S79" s="61"/>
     </row>
-    <row r="80" spans="1:25" ht="24" customHeight="1">
+    <row r="80" spans="1:26" ht="24" customHeight="1">
       <c r="A80" s="21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" s="59">
-        <v>255</v>
+        <v>180</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="23">
+        <v>11</v>
       </c>
       <c r="E80" s="23"/>
-      <c r="F80" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="31"/>
       <c r="H80" s="23" t="b">
         <v>1</v>
       </c>
       <c r="I80" s="23"/>
       <c r="J80" s="23"/>
       <c r="K80" s="22"/>
-      <c r="L80" s="23"/>
+      <c r="L80" s="31"/>
       <c r="M80" s="24"/>
-      <c r="N80" s="61"/>
-      <c r="O80" s="61"/>
+      <c r="N80" s="60"/>
+      <c r="O80" s="60"/>
       <c r="P80" s="61"/>
-      <c r="Q80" s="61"/>
-      <c r="R80" s="61"/>
-      <c r="S80" s="61"/>
-    </row>
-    <row r="81" spans="1:25" ht="24" customHeight="1">
+      <c r="Q80" s="62"/>
+      <c r="R80" s="60"/>
+      <c r="S80" s="60"/>
+      <c r="T80" s="36"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="36"/>
+      <c r="Y80" s="36"/>
+      <c r="Z80" s="36"/>
+    </row>
+    <row r="81" spans="1:26" ht="24" customHeight="1">
       <c r="A81" s="21" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="22"/>
+        <v>197</v>
+      </c>
+      <c r="D81" s="23">
+        <v>11</v>
+      </c>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="23" t="b">
+        <v>1</v>
+      </c>
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="31"/>
       <c r="M81" s="24"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="61"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="60"/>
       <c r="P81" s="61"/>
-      <c r="Q81" s="61"/>
-      <c r="R81" s="61"/>
-      <c r="S81" s="61"/>
-    </row>
-    <row r="82" spans="1:25" ht="24" customHeight="1" thickBot="1">
-      <c r="A82" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D82" s="42"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="60"/>
-      <c r="O82" s="60"/>
+      <c r="Q81" s="62"/>
+      <c r="R81" s="60"/>
+      <c r="S81" s="60"/>
+      <c r="T81" s="36"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="36"/>
+      <c r="X81" s="36"/>
+      <c r="Y81" s="36"/>
+      <c r="Z81" s="36"/>
+    </row>
+    <row r="82" spans="1:26" ht="24" customHeight="1">
+      <c r="A82" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="57">
+        <v>255</v>
+      </c>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82" s="37"/>
+      <c r="H82" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
       <c r="P82" s="61"/>
-      <c r="Q82" s="62"/>
-      <c r="R82" s="60"/>
-      <c r="S82" s="60"/>
-      <c r="T82" s="36"/>
-      <c r="V82" s="35"/>
-      <c r="W82" s="36"/>
-      <c r="X82" s="36"/>
-      <c r="Y82" s="36"/>
-    </row>
-    <row r="83" spans="1:25" ht="21" customHeight="1" thickBot="1">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
+      <c r="S82" s="61"/>
+    </row>
+    <row r="83" spans="1:26" ht="24" customHeight="1">
+      <c r="A83" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="59">
+        <v>255</v>
+      </c>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="24"/>
       <c r="N83" s="61"/>
       <c r="O83" s="61"/>
       <c r="P83" s="61"/>
@@ -5684,22 +6082,26 @@
       <c r="R83" s="61"/>
       <c r="S83" s="61"/>
     </row>
-    <row r="84" spans="1:25" ht="21" customHeight="1">
-      <c r="A84" s="70" t="s">
-        <v>219</v>
-      </c>
-      <c r="B84" s="71"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="72"/>
-      <c r="K84" s="72"/>
-      <c r="L84" s="72"/>
-      <c r="M84" s="73"/>
+    <row r="84" spans="1:26" ht="24" customHeight="1">
+      <c r="A84" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="22"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="24"/>
       <c r="N84" s="61"/>
       <c r="O84" s="61"/>
       <c r="P84" s="61"/>
@@ -5707,79 +6109,46 @@
       <c r="R84" s="61"/>
       <c r="S84" s="61"/>
     </row>
-    <row r="85" spans="1:25" ht="24" customHeight="1">
-      <c r="A85" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I85" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J85" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="K85" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L85" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="M85" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
+    <row r="85" spans="1:26" ht="24" customHeight="1" thickBot="1">
+      <c r="A85" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="42"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="60"/>
+      <c r="O85" s="60"/>
       <c r="P85" s="61"/>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="61"/>
-      <c r="S85" s="61"/>
-    </row>
-    <row r="86" spans="1:25" ht="24" customHeight="1">
-      <c r="A86" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="22">
-        <v>11</v>
-      </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J86" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="24"/>
+      <c r="Q85" s="62"/>
+      <c r="R85" s="60"/>
+      <c r="S85" s="60"/>
+      <c r="T85" s="36"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="36"/>
+      <c r="X85" s="36"/>
+      <c r="Y85" s="36"/>
+      <c r="Z85" s="36"/>
+    </row>
+    <row r="86" spans="1:26" ht="21" customHeight="1" thickBot="1">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
       <c r="N86" s="61"/>
       <c r="O86" s="61"/>
       <c r="P86" s="61"/>
@@ -5787,30 +6156,22 @@
       <c r="R86" s="61"/>
       <c r="S86" s="61"/>
     </row>
-    <row r="87" spans="1:25" ht="24" customHeight="1" thickBot="1">
-      <c r="A87" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="B87" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="C87" s="100" t="s">
-        <v>42</v>
-      </c>
-      <c r="D87" s="26">
-        <v>255</v>
-      </c>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="27"/>
+    <row r="87" spans="1:26" ht="21" customHeight="1">
+      <c r="A87" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="71"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
+      <c r="K87" s="72"/>
+      <c r="L87" s="72"/>
+      <c r="M87" s="73"/>
       <c r="N87" s="61"/>
       <c r="O87" s="61"/>
       <c r="P87" s="61"/>
@@ -5818,1666 +6179,1873 @@
       <c r="R87" s="61"/>
       <c r="S87" s="61"/>
     </row>
-    <row r="88" spans="1:25" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A88" s="82"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="60"/>
-    </row>
-    <row r="89" spans="1:25" s="102" customFormat="1" ht="27" customHeight="1">
-      <c r="A89" s="70" t="s">
+    <row r="88" spans="1:26" ht="24" customHeight="1">
+      <c r="A88" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K88" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L88" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M88" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N88" s="61"/>
+      <c r="O88" s="61"/>
+      <c r="P88" s="61"/>
+      <c r="Q88" s="61"/>
+      <c r="R88" s="61"/>
+      <c r="S88" s="61"/>
+    </row>
+    <row r="89" spans="1:26" ht="24" customHeight="1">
+      <c r="A89" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" s="22">
+        <v>11</v>
+      </c>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J89" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="61"/>
+      <c r="P89" s="61"/>
+      <c r="Q89" s="61"/>
+      <c r="R89" s="61"/>
+      <c r="S89" s="61"/>
+    </row>
+    <row r="90" spans="1:26" ht="24" customHeight="1" thickBot="1">
+      <c r="A90" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="C90" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" s="26">
+        <v>255</v>
+      </c>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="61"/>
+      <c r="S90" s="61"/>
+    </row>
+    <row r="91" spans="1:26" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A91" s="82"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="60"/>
+    </row>
+    <row r="92" spans="1:26" s="102" customFormat="1" ht="27" customHeight="1">
+      <c r="A92" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="B89" s="71"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="72"/>
-      <c r="L89" s="72"/>
-      <c r="M89" s="73"/>
-    </row>
-    <row r="90" spans="1:25" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A90" s="17" t="s">
+      <c r="B92" s="71"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
+      <c r="K92" s="72"/>
+      <c r="L92" s="72"/>
+      <c r="M92" s="73"/>
+      <c r="X92" s="103"/>
+    </row>
+    <row r="93" spans="1:26" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A93" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B93" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C93" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D93" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E93" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F90" s="18" t="s">
+      <c r="F93" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G90" s="18" t="s">
+      <c r="G93" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H90" s="18" t="s">
+      <c r="H93" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I90" s="19" t="s">
+      <c r="I93" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J90" s="18" t="s">
+      <c r="J93" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K90" s="18" t="s">
+      <c r="K93" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L90" s="18" t="s">
+      <c r="L93" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M90" s="20" t="s">
+      <c r="M93" s="20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A91" s="21" t="s">
+      <c r="X93" s="103"/>
+    </row>
+    <row r="94" spans="1:26" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A94" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B94" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C94" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D94" s="22">
         <v>11</v>
       </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="22" t="s">
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L91" s="23"/>
-      <c r="M91" s="24"/>
-    </row>
-    <row r="92" spans="1:25" s="102" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A92" s="41" t="s">
+      <c r="L94" s="23"/>
+      <c r="M94" s="24"/>
+      <c r="O94" s="34">
+        <v>1</v>
+      </c>
+      <c r="P94" s="34">
+        <v>2</v>
+      </c>
+      <c r="Q94" s="34">
+        <v>3</v>
+      </c>
+      <c r="R94" s="34">
+        <v>4</v>
+      </c>
+      <c r="S94" s="34">
+        <v>5</v>
+      </c>
+      <c r="T94" s="34">
+        <v>6</v>
+      </c>
+      <c r="U94" s="34">
+        <v>7</v>
+      </c>
+      <c r="V94" s="34">
+        <v>8</v>
+      </c>
+      <c r="W94" s="34">
+        <v>9</v>
+      </c>
+      <c r="X94" s="103">
+        <v>10</v>
+      </c>
+      <c r="Y94" s="103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" s="102" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A95" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="B92" s="42" t="s">
+      <c r="B95" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="C92" s="42" t="s">
+      <c r="C95" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="42">
+      <c r="D95" s="42">
         <v>11</v>
       </c>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="42" t="s">
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="L92" s="26"/>
-      <c r="M92" s="27"/>
-    </row>
-    <row r="93" spans="1:25" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A93" s="82"/>
-      <c r="B93" s="82"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60"/>
-    </row>
-    <row r="94" spans="1:25" s="102" customFormat="1" ht="27" customHeight="1">
-      <c r="A94" s="70" t="s">
+      <c r="L95" s="26"/>
+      <c r="M95" s="27"/>
+      <c r="O95" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="P95" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q95" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="R95" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="S95" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="T95" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="U95" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="V95" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="W95" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="X95" s="103" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y95" s="34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A96" s="82"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="60"/>
+      <c r="J96" s="60"/>
+      <c r="K96" s="60"/>
+      <c r="L96" s="60"/>
+      <c r="M96" s="60"/>
+      <c r="O96" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="P96" s="103" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q96" s="103" t="s">
+        <v>385</v>
+      </c>
+      <c r="R96" s="103" t="s">
+        <v>386</v>
+      </c>
+      <c r="S96" s="103" t="s">
+        <v>387</v>
+      </c>
+      <c r="T96" s="103" t="s">
+        <v>388</v>
+      </c>
+      <c r="U96" s="103" t="s">
+        <v>389</v>
+      </c>
+      <c r="V96" s="103" t="s">
+        <v>390</v>
+      </c>
+      <c r="W96" s="103" t="s">
+        <v>391</v>
+      </c>
+      <c r="X96" s="103" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y96" s="103" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" s="102" customFormat="1" ht="27" customHeight="1">
+      <c r="A97" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="B94" s="71"/>
-      <c r="C94" s="72"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="72"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="72"/>
-      <c r="H94" s="72"/>
-      <c r="I94" s="72"/>
-      <c r="J94" s="72"/>
-      <c r="K94" s="72"/>
-      <c r="L94" s="72"/>
-      <c r="M94" s="73"/>
-    </row>
-    <row r="95" spans="1:25" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A95" s="17" t="s">
+      <c r="B97" s="71"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="73"/>
+      <c r="X97" s="103"/>
+    </row>
+    <row r="98" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A98" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="45" t="s">
+      <c r="B98" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C98" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D98" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E98" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F95" s="18" t="s">
+      <c r="F98" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G95" s="18" t="s">
+      <c r="G98" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H95" s="18" t="s">
+      <c r="H98" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I95" s="19" t="s">
+      <c r="I98" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J95" s="18" t="s">
+      <c r="J98" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K95" s="18" t="s">
+      <c r="K98" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L95" s="18" t="s">
+      <c r="L98" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M95" s="20" t="s">
+      <c r="M98" s="20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A96" s="21" t="s">
+      <c r="X98" s="103"/>
+    </row>
+    <row r="99" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A99" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="B96" s="80" t="s">
+      <c r="B99" s="80" t="s">
         <v>317</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C99" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D99" s="22">
         <v>11</v>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23" t="s">
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J96" s="23" t="s">
+      <c r="J99" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="24"/>
-    </row>
-    <row r="97" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A97" s="21" t="s">
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="24"/>
+      <c r="X99" s="103"/>
+    </row>
+    <row r="100" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A100" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="B97" s="78" t="s">
+      <c r="B100" s="78" t="s">
         <v>344</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C100" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="23">
+      <c r="D100" s="23">
         <v>11</v>
       </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="22" t="s">
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L97" s="23"/>
-      <c r="M97" s="24"/>
-    </row>
-    <row r="98" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A98" s="41" t="s">
+      <c r="L100" s="23"/>
+      <c r="M100" s="24"/>
+      <c r="X100" s="103"/>
+    </row>
+    <row r="101" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A101" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="B98" s="105" t="s">
+      <c r="B101" s="104" t="s">
         <v>315</v>
       </c>
-      <c r="C98" s="100" t="s">
+      <c r="C101" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="D98" s="26">
+      <c r="D101" s="26">
         <v>255</v>
       </c>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26" t="s">
+      <c r="E101" s="26"/>
+      <c r="F101" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="42"/>
-      <c r="L98" s="26"/>
-      <c r="M98" s="27"/>
-    </row>
-    <row r="99" spans="1:13" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A99" s="82"/>
-      <c r="B99" s="82"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="60"/>
-      <c r="H99" s="60"/>
-      <c r="I99" s="60"/>
-      <c r="J99" s="60"/>
-      <c r="K99" s="60"/>
-      <c r="L99" s="60"/>
-      <c r="M99" s="60"/>
-    </row>
-    <row r="100" spans="1:13" s="102" customFormat="1" ht="27" customHeight="1">
-      <c r="A100" s="70" t="s">
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="27"/>
+      <c r="X101" s="103"/>
+    </row>
+    <row r="102" spans="1:24" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A102" s="82"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="60"/>
+      <c r="J102" s="60"/>
+      <c r="K102" s="60"/>
+      <c r="L102" s="60"/>
+      <c r="M102" s="60"/>
+    </row>
+    <row r="103" spans="1:24" s="102" customFormat="1" ht="27" customHeight="1">
+      <c r="A103" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="B100" s="71"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="72"/>
-      <c r="K100" s="72"/>
-      <c r="L100" s="72"/>
-      <c r="M100" s="73"/>
-    </row>
-    <row r="101" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A101" s="17" t="s">
+      <c r="B103" s="71"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="72"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
+      <c r="K103" s="72"/>
+      <c r="L103" s="72"/>
+      <c r="M103" s="73"/>
+      <c r="X103" s="103"/>
+    </row>
+    <row r="104" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A104" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B104" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C104" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D104" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E104" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="F104" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G101" s="18" t="s">
+      <c r="G104" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H101" s="18" t="s">
+      <c r="H104" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I101" s="19" t="s">
+      <c r="I104" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J101" s="18" t="s">
+      <c r="J104" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K101" s="18" t="s">
+      <c r="K104" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L101" s="18" t="s">
+      <c r="L104" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M101" s="20" t="s">
+      <c r="M104" s="20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A102" s="21" t="s">
+      <c r="X104" s="103"/>
+    </row>
+    <row r="105" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A105" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="B102" s="80" t="s">
+      <c r="B105" s="80" t="s">
         <v>319</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C105" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D102" s="22">
+      <c r="D105" s="22">
         <v>11</v>
       </c>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23" t="s">
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J102" s="23" t="s">
+      <c r="J105" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="24"/>
-    </row>
-    <row r="103" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A103" s="21" t="s">
+      <c r="K105" s="23"/>
+      <c r="L105" s="23"/>
+      <c r="M105" s="24"/>
+      <c r="X105" s="103"/>
+    </row>
+    <row r="106" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A106" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="B103" s="78" t="s">
+      <c r="B106" s="78" t="s">
         <v>344</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C106" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D106" s="23">
         <v>11</v>
       </c>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="22" t="s">
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L103" s="23"/>
-      <c r="M103" s="24"/>
-    </row>
-    <row r="104" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A104" s="41" t="s">
+      <c r="L106" s="23"/>
+      <c r="M106" s="24"/>
+      <c r="X106" s="103"/>
+    </row>
+    <row r="107" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A107" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="B104" s="105" t="s">
+      <c r="B107" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="C104" s="100" t="s">
+      <c r="C107" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="D104" s="26">
+      <c r="D107" s="26">
         <v>255</v>
       </c>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26" t="s">
+      <c r="E107" s="26"/>
+      <c r="F107" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="42"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="27"/>
-    </row>
-    <row r="105" spans="1:13" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A105" s="82"/>
-      <c r="B105" s="82"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="60"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
-      <c r="M105" s="60"/>
-    </row>
-    <row r="106" spans="1:13" s="102" customFormat="1" ht="27" customHeight="1">
-      <c r="A106" s="70" t="s">
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="27"/>
+      <c r="X107" s="103"/>
+    </row>
+    <row r="108" spans="1:24" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A108" s="82"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="60"/>
+      <c r="J108" s="60"/>
+      <c r="K108" s="60"/>
+      <c r="L108" s="60"/>
+      <c r="M108" s="60"/>
+    </row>
+    <row r="109" spans="1:24" s="102" customFormat="1" ht="27" customHeight="1">
+      <c r="A109" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="B106" s="71"/>
-      <c r="C106" s="72"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="72"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="73"/>
-    </row>
-    <row r="107" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A107" s="17" t="s">
+      <c r="B109" s="71"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="72"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="72"/>
+      <c r="J109" s="72"/>
+      <c r="K109" s="72"/>
+      <c r="L109" s="72"/>
+      <c r="M109" s="73"/>
+      <c r="X109" s="103"/>
+    </row>
+    <row r="110" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A110" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B107" s="45" t="s">
+      <c r="B110" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C110" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D110" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="E110" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="18" t="s">
+      <c r="F110" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G107" s="18" t="s">
+      <c r="G110" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H107" s="18" t="s">
+      <c r="H110" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I107" s="19" t="s">
+      <c r="I110" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J107" s="18" t="s">
+      <c r="J110" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K107" s="18" t="s">
+      <c r="K110" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L107" s="18" t="s">
+      <c r="L110" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M107" s="20" t="s">
+      <c r="M110" s="20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A108" s="21" t="s">
+      <c r="X110" s="103"/>
+    </row>
+    <row r="111" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A111" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="78" t="s">
+      <c r="B111" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="C108" s="23" t="s">
+      <c r="C111" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D108" s="23">
+      <c r="D111" s="23">
         <v>11</v>
       </c>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23"/>
-      <c r="K108" s="22" t="s">
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L108" s="23"/>
-      <c r="M108" s="24"/>
-    </row>
-    <row r="109" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A109" s="21" t="s">
+      <c r="L111" s="23"/>
+      <c r="M111" s="24"/>
+      <c r="X111" s="103"/>
+    </row>
+    <row r="112" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A112" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B109" s="78" t="s">
+      <c r="B112" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C112" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D109" s="23">
+      <c r="D112" s="23">
         <v>11</v>
       </c>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="23"/>
-      <c r="J109" s="23"/>
-      <c r="K109" s="22" t="s">
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L109" s="23"/>
-      <c r="M109" s="24"/>
-    </row>
-    <row r="110" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A110" s="25" t="s">
+      <c r="L112" s="23"/>
+      <c r="M112" s="24"/>
+      <c r="X112" s="103"/>
+    </row>
+    <row r="113" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A113" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B110" s="42" t="s">
+      <c r="B113" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C113" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="26"/>
-      <c r="L110" s="26"/>
-      <c r="M110" s="27"/>
-    </row>
-    <row r="111" spans="1:13" ht="21" customHeight="1" thickBot="1">
-      <c r="A111" s="36"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-    </row>
-    <row r="112" spans="1:13" ht="27" customHeight="1">
-      <c r="A112" s="70" t="s">
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="27"/>
+      <c r="X113" s="103"/>
+    </row>
+    <row r="114" spans="1:24" ht="21" customHeight="1" thickBot="1">
+      <c r="A114" s="36"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+    </row>
+    <row r="115" spans="1:24" ht="27" customHeight="1">
+      <c r="A115" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="B112" s="71"/>
-      <c r="C112" s="72"/>
-      <c r="D112" s="72"/>
-      <c r="E112" s="72"/>
-      <c r="F112" s="72"/>
-      <c r="G112" s="72"/>
-      <c r="H112" s="72"/>
-      <c r="I112" s="72"/>
-      <c r="J112" s="72"/>
-      <c r="K112" s="72"/>
-      <c r="L112" s="72"/>
-      <c r="M112" s="73"/>
-    </row>
-    <row r="113" spans="1:13" ht="24" customHeight="1">
-      <c r="A113" s="17" t="s">
+      <c r="B115" s="71"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="72"/>
+      <c r="H115" s="72"/>
+      <c r="I115" s="72"/>
+      <c r="J115" s="72"/>
+      <c r="K115" s="72"/>
+      <c r="L115" s="72"/>
+      <c r="M115" s="73"/>
+    </row>
+    <row r="116" spans="1:24" ht="24" customHeight="1">
+      <c r="A116" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B116" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C116" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D116" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E116" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="18" t="s">
+      <c r="F116" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G113" s="18" t="s">
+      <c r="G116" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H113" s="18" t="s">
+      <c r="H116" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I113" s="19" t="s">
+      <c r="I116" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J113" s="18" t="s">
+      <c r="J116" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K113" s="18" t="s">
+      <c r="K116" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L113" s="18" t="s">
+      <c r="L116" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M113" s="20" t="s">
+      <c r="M116" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="24" customHeight="1">
-      <c r="A114" s="21" t="s">
+    <row r="117" spans="1:24" ht="24" customHeight="1">
+      <c r="A117" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B114" s="78" t="s">
+      <c r="B117" s="78" t="s">
         <v>212</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D114" s="23">
-        <v>10</v>
-      </c>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J114" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K114" s="23"/>
-      <c r="L114" s="23"/>
-      <c r="M114" s="24"/>
-    </row>
-    <row r="115" spans="1:13" ht="24" customHeight="1">
-      <c r="A115" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B115" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D115" s="23">
-        <v>11</v>
-      </c>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="23"/>
-      <c r="J115" s="23"/>
-      <c r="K115" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L115" s="23"/>
-      <c r="M115" s="24"/>
-    </row>
-    <row r="116" spans="1:13" ht="24" customHeight="1">
-      <c r="A116" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D116" s="23">
-        <v>11</v>
-      </c>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="23"/>
-      <c r="I116" s="23"/>
-      <c r="J116" s="23"/>
-      <c r="K116" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L116" s="23"/>
-      <c r="M116" s="24"/>
-    </row>
-    <row r="117" spans="1:13" ht="24" customHeight="1">
-      <c r="A117" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B117" s="79" t="s">
-        <v>208</v>
       </c>
       <c r="C117" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D117" s="22">
-        <v>11</v>
+      <c r="D117" s="23">
+        <v>10</v>
       </c>
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
       <c r="G117" s="23"/>
       <c r="H117" s="23"/>
-      <c r="I117" s="23"/>
-      <c r="J117" s="23"/>
-      <c r="K117" s="22"/>
+      <c r="I117" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J117" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K117" s="23"/>
       <c r="L117" s="23"/>
       <c r="M117" s="24"/>
     </row>
-    <row r="118" spans="1:13" ht="24" customHeight="1">
+    <row r="118" spans="1:24" ht="24" customHeight="1">
       <c r="A118" s="21" t="s">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="B118" s="78" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="D118" s="23">
-        <v>30000</v>
+        <v>11</v>
       </c>
       <c r="E118" s="23"/>
-      <c r="F118" s="22" t="s">
-        <v>43</v>
-      </c>
+      <c r="F118" s="23"/>
       <c r="G118" s="23"/>
       <c r="H118" s="23"/>
       <c r="I118" s="23"/>
       <c r="J118" s="23"/>
-      <c r="K118" s="23"/>
+      <c r="K118" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="L118" s="23"/>
       <c r="M118" s="24"/>
     </row>
-    <row r="119" spans="1:13" ht="24" customHeight="1">
-      <c r="A119" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>95</v>
+    <row r="119" spans="1:24" ht="24" customHeight="1">
+      <c r="A119" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B119" s="78" t="s">
+        <v>207</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D119" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="D119" s="23">
+        <v>11</v>
+      </c>
       <c r="E119" s="23"/>
       <c r="F119" s="23"/>
       <c r="G119" s="23"/>
       <c r="H119" s="23"/>
       <c r="I119" s="23"/>
       <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
+      <c r="K119" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="L119" s="23"/>
       <c r="M119" s="24"/>
     </row>
-    <row r="120" spans="1:13" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A120" s="25" t="s">
+    <row r="120" spans="1:24" ht="24" customHeight="1">
+      <c r="A120" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B120" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="22">
+        <v>11</v>
+      </c>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="23"/>
+      <c r="M120" s="24"/>
+    </row>
+    <row r="121" spans="1:24" ht="24" customHeight="1">
+      <c r="A121" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B121" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D121" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E121" s="23"/>
+      <c r="F121" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
+      <c r="M121" s="24"/>
+    </row>
+    <row r="122" spans="1:24" ht="24" customHeight="1">
+      <c r="A122" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="24"/>
+    </row>
+    <row r="123" spans="1:24" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A123" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B120" s="42" t="s">
+      <c r="B123" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="C123" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="26"/>
-      <c r="J120" s="26"/>
-      <c r="K120" s="26"/>
-      <c r="L120" s="26"/>
-      <c r="M120" s="27"/>
-    </row>
-    <row r="121" spans="1:13" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A121" s="82"/>
-      <c r="B121" s="82"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
-      <c r="L121" s="60"/>
-      <c r="M121" s="60"/>
-    </row>
-    <row r="122" spans="1:13" s="102" customFormat="1" ht="27" customHeight="1">
-      <c r="A122" s="70" t="s">
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="26"/>
+      <c r="M123" s="27"/>
+    </row>
+    <row r="124" spans="1:24" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A124" s="82"/>
+      <c r="B124" s="82"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="60"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="60"/>
+      <c r="I124" s="60"/>
+      <c r="J124" s="60"/>
+      <c r="K124" s="60"/>
+      <c r="L124" s="60"/>
+      <c r="M124" s="60"/>
+    </row>
+    <row r="125" spans="1:24" s="102" customFormat="1" ht="27" customHeight="1">
+      <c r="A125" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="B122" s="71"/>
-      <c r="C122" s="72"/>
-      <c r="D122" s="72"/>
-      <c r="E122" s="72"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="72"/>
-      <c r="H122" s="72"/>
-      <c r="I122" s="72"/>
-      <c r="J122" s="72"/>
-      <c r="K122" s="72"/>
-      <c r="L122" s="72"/>
-      <c r="M122" s="73"/>
-    </row>
-    <row r="123" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A123" s="17" t="s">
+      <c r="B125" s="71"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="72"/>
+      <c r="E125" s="72"/>
+      <c r="F125" s="72"/>
+      <c r="G125" s="72"/>
+      <c r="H125" s="72"/>
+      <c r="I125" s="72"/>
+      <c r="J125" s="72"/>
+      <c r="K125" s="72"/>
+      <c r="L125" s="72"/>
+      <c r="M125" s="73"/>
+      <c r="X125" s="103"/>
+    </row>
+    <row r="126" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A126" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B123" s="45" t="s">
+      <c r="B126" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C126" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D126" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E126" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F123" s="18" t="s">
+      <c r="F126" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G123" s="18" t="s">
+      <c r="G126" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H123" s="18" t="s">
+      <c r="H126" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I123" s="19" t="s">
+      <c r="I126" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J123" s="18" t="s">
+      <c r="J126" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K123" s="18" t="s">
+      <c r="K126" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L123" s="18" t="s">
+      <c r="L126" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M123" s="20" t="s">
+      <c r="M126" s="20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A124" s="21" t="s">
+      <c r="X126" s="103"/>
+    </row>
+    <row r="127" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A127" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="B124" s="80" t="s">
+      <c r="B127" s="80" t="s">
         <v>323</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C127" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D124" s="22">
+      <c r="D127" s="22">
         <v>11</v>
       </c>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="23"/>
-      <c r="H124" s="23"/>
-      <c r="I124" s="23" t="s">
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J124" s="23" t="s">
+      <c r="J127" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K124" s="23"/>
-      <c r="L124" s="23"/>
-      <c r="M124" s="24"/>
-    </row>
-    <row r="125" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A125" s="21" t="s">
+      <c r="K127" s="23"/>
+      <c r="L127" s="23"/>
+      <c r="M127" s="24"/>
+      <c r="X127" s="103"/>
+    </row>
+    <row r="128" spans="1:24" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A128" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="B125" s="78" t="s">
+      <c r="B128" s="78" t="s">
         <v>343</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C128" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D125" s="23">
+      <c r="D128" s="23">
         <v>11</v>
       </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="23"/>
-      <c r="K125" s="22" t="s">
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23"/>
+      <c r="K128" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L125" s="23"/>
-      <c r="M125" s="24"/>
-    </row>
-    <row r="126" spans="1:13" s="102" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A126" s="41" t="s">
+      <c r="L128" s="23"/>
+      <c r="M128" s="24"/>
+      <c r="X128" s="103"/>
+    </row>
+    <row r="129" spans="1:25" s="102" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A129" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="B126" s="105" t="s">
+      <c r="B129" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="C126" s="100" t="s">
+      <c r="C129" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="D126" s="26">
+      <c r="D129" s="26">
         <v>255</v>
       </c>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26" t="s">
+      <c r="E129" s="26"/>
+      <c r="F129" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="42"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="27"/>
-    </row>
-    <row r="127" spans="1:13" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A127" s="82"/>
-      <c r="B127" s="82"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="60"/>
-      <c r="H127" s="60"/>
-      <c r="I127" s="60"/>
-      <c r="J127" s="60"/>
-      <c r="K127" s="60"/>
-      <c r="L127" s="60"/>
-      <c r="M127" s="60"/>
-    </row>
-    <row r="128" spans="1:13" ht="27" customHeight="1">
-      <c r="A128" s="70" t="s">
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="42"/>
+      <c r="L129" s="26"/>
+      <c r="M129" s="27"/>
+      <c r="X129" s="103"/>
+    </row>
+    <row r="130" spans="1:25" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A130" s="82"/>
+      <c r="B130" s="82"/>
+      <c r="C130" s="60"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="60"/>
+      <c r="G130" s="60"/>
+      <c r="H130" s="60"/>
+      <c r="I130" s="60"/>
+      <c r="J130" s="60"/>
+      <c r="K130" s="60"/>
+      <c r="L130" s="60"/>
+      <c r="M130" s="60"/>
+    </row>
+    <row r="131" spans="1:25" ht="27" customHeight="1">
+      <c r="A131" s="70" t="s">
         <v>290</v>
       </c>
-      <c r="B128" s="71"/>
-      <c r="C128" s="72"/>
-      <c r="D128" s="72"/>
-      <c r="E128" s="72"/>
-      <c r="F128" s="72"/>
-      <c r="G128" s="72"/>
-      <c r="H128" s="72"/>
-      <c r="I128" s="72"/>
-      <c r="J128" s="72"/>
-      <c r="K128" s="72"/>
-      <c r="L128" s="72"/>
-      <c r="M128" s="73"/>
-    </row>
-    <row r="129" spans="1:13" ht="24" customHeight="1">
-      <c r="A129" s="17" t="s">
+      <c r="B131" s="71"/>
+      <c r="C131" s="72"/>
+      <c r="D131" s="72"/>
+      <c r="E131" s="72"/>
+      <c r="F131" s="72"/>
+      <c r="G131" s="72"/>
+      <c r="H131" s="72"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="72"/>
+      <c r="K131" s="72"/>
+      <c r="L131" s="72"/>
+      <c r="M131" s="73"/>
+    </row>
+    <row r="132" spans="1:25" ht="24" customHeight="1">
+      <c r="A132" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B129" s="45" t="s">
+      <c r="B132" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C132" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D129" s="18" t="s">
+      <c r="D132" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E129" s="18" t="s">
+      <c r="E132" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F129" s="18" t="s">
+      <c r="F132" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G129" s="18" t="s">
+      <c r="G132" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H129" s="18" t="s">
+      <c r="H132" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I129" s="19" t="s">
+      <c r="I132" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J129" s="18" t="s">
+      <c r="J132" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K129" s="18" t="s">
+      <c r="K132" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L129" s="18" t="s">
+      <c r="L132" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M129" s="20" t="s">
+      <c r="M132" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="24" customHeight="1">
-      <c r="A130" s="21" t="s">
+    <row r="133" spans="1:25" ht="24" customHeight="1">
+      <c r="A133" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="B130" s="80" t="s">
+      <c r="B133" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="C133" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D130" s="22">
-        <v>11</v>
-      </c>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J130" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K130" s="23"/>
-      <c r="L130" s="23"/>
-      <c r="M130" s="24"/>
-    </row>
-    <row r="131" spans="1:13" ht="24" customHeight="1">
-      <c r="A131" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B131" s="78" t="s">
-        <v>342</v>
-      </c>
-      <c r="C131" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D131" s="23">
-        <v>11</v>
-      </c>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23"/>
-      <c r="I131" s="23"/>
-      <c r="J131" s="23"/>
-      <c r="K131" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L131" s="23"/>
-      <c r="M131" s="24"/>
-    </row>
-    <row r="132" spans="1:13" ht="24" customHeight="1">
-      <c r="A132" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="B132" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D132" s="23">
-        <v>11</v>
-      </c>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="23"/>
-      <c r="J132" s="23"/>
-      <c r="K132" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L132" s="23"/>
-      <c r="M132" s="24"/>
-    </row>
-    <row r="133" spans="1:13" ht="24" customHeight="1">
-      <c r="A133" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="B133" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D133" s="23">
+      <c r="D133" s="22">
         <v>11</v>
       </c>
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
       <c r="G133" s="23"/>
       <c r="H133" s="23"/>
-      <c r="I133" s="23"/>
-      <c r="J133" s="23"/>
-      <c r="K133" s="22" t="s">
-        <v>58</v>
-      </c>
+      <c r="I133" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J133" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K133" s="23"/>
       <c r="L133" s="23"/>
       <c r="M133" s="24"/>
     </row>
-    <row r="134" spans="1:13" ht="24" customHeight="1">
-      <c r="A134" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>95</v>
+    <row r="134" spans="1:25" ht="24" customHeight="1">
+      <c r="A134" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B134" s="78" t="s">
+        <v>342</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D134" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="D134" s="23">
+        <v>11</v>
+      </c>
       <c r="E134" s="23"/>
       <c r="F134" s="23"/>
       <c r="G134" s="23"/>
       <c r="H134" s="23"/>
       <c r="I134" s="23"/>
       <c r="J134" s="23"/>
-      <c r="K134" s="23"/>
+      <c r="K134" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="L134" s="23"/>
       <c r="M134" s="24"/>
     </row>
-    <row r="135" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A135" s="25" t="s">
+    <row r="135" spans="1:25" ht="24" customHeight="1">
+      <c r="A135" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B135" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" s="23">
+        <v>11</v>
+      </c>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="23"/>
+      <c r="J135" s="23"/>
+      <c r="K135" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L135" s="23"/>
+      <c r="M135" s="24"/>
+    </row>
+    <row r="136" spans="1:25" ht="24" customHeight="1">
+      <c r="A136" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="B136" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" s="23">
+        <v>11</v>
+      </c>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="23"/>
+      <c r="J136" s="23"/>
+      <c r="K136" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L136" s="23"/>
+      <c r="M136" s="24"/>
+    </row>
+    <row r="137" spans="1:25" ht="24" customHeight="1">
+      <c r="A137" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="23"/>
+      <c r="K137" s="23"/>
+      <c r="L137" s="23"/>
+      <c r="M137" s="24"/>
+    </row>
+    <row r="138" spans="1:25" ht="24.75" customHeight="1">
+      <c r="A138" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B135" s="42" t="s">
+      <c r="B138" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C138" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26"/>
-      <c r="K135" s="26"/>
-      <c r="L135" s="26"/>
-      <c r="M135" s="27"/>
-    </row>
-    <row r="136" spans="1:13" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A136" s="93"/>
-      <c r="B136" s="93"/>
-      <c r="C136" s="94"/>
-      <c r="D136" s="94"/>
-      <c r="E136" s="94"/>
-      <c r="F136" s="94"/>
-      <c r="G136" s="94"/>
-      <c r="H136" s="94"/>
-      <c r="I136" s="94"/>
-      <c r="J136" s="94"/>
-      <c r="K136" s="94"/>
-      <c r="L136" s="94"/>
-      <c r="M136" s="94"/>
-    </row>
-    <row r="137" spans="1:13" ht="27" customHeight="1">
-      <c r="A137" s="70" t="s">
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="26"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="26"/>
+      <c r="M138" s="27"/>
+    </row>
+    <row r="139" spans="1:25" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A139" s="93"/>
+      <c r="B139" s="93"/>
+      <c r="C139" s="94"/>
+      <c r="D139" s="94"/>
+      <c r="E139" s="94"/>
+      <c r="F139" s="94"/>
+      <c r="G139" s="94"/>
+      <c r="H139" s="94"/>
+      <c r="I139" s="94"/>
+      <c r="J139" s="94"/>
+      <c r="K139" s="94"/>
+      <c r="L139" s="94"/>
+      <c r="M139" s="94"/>
+    </row>
+    <row r="140" spans="1:25" ht="27" customHeight="1">
+      <c r="A140" s="70" t="s">
         <v>285</v>
       </c>
-      <c r="B137" s="71"/>
-      <c r="C137" s="72"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="72"/>
-      <c r="F137" s="72"/>
-      <c r="G137" s="72"/>
-      <c r="H137" s="72"/>
-      <c r="I137" s="72"/>
-      <c r="J137" s="72"/>
-      <c r="K137" s="72"/>
-      <c r="L137" s="72"/>
-      <c r="M137" s="73"/>
-    </row>
-    <row r="138" spans="1:13" ht="24" customHeight="1">
-      <c r="A138" s="17" t="s">
+      <c r="B140" s="71"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="72"/>
+      <c r="H140" s="72"/>
+      <c r="I140" s="72"/>
+      <c r="J140" s="72"/>
+      <c r="K140" s="72"/>
+      <c r="L140" s="72"/>
+      <c r="M140" s="73"/>
+    </row>
+    <row r="141" spans="1:25" ht="24" customHeight="1">
+      <c r="A141" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B138" s="45" t="s">
+      <c r="B141" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C141" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D141" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E138" s="18" t="s">
+      <c r="E141" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F138" s="18" t="s">
+      <c r="F141" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G138" s="18" t="s">
+      <c r="G141" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H138" s="18" t="s">
+      <c r="H141" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I138" s="19" t="s">
+      <c r="I141" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J138" s="18" t="s">
+      <c r="J141" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K138" s="18" t="s">
+      <c r="K141" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L138" s="18" t="s">
+      <c r="L141" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M138" s="20" t="s">
+      <c r="M141" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="24" customHeight="1">
-      <c r="A139" s="21" t="s">
+    <row r="142" spans="1:25" ht="24" customHeight="1">
+      <c r="A142" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="B139" s="78" t="s">
+      <c r="B142" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C142" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D139" s="23">
+      <c r="D142" s="23">
         <v>11</v>
       </c>
-      <c r="E139" s="23"/>
-      <c r="F139" s="23"/>
-      <c r="G139" s="23"/>
-      <c r="H139" s="23"/>
-      <c r="I139" s="23" t="s">
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="23"/>
+      <c r="I142" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J139" s="23" t="s">
+      <c r="J142" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K139" s="22"/>
-      <c r="L139" s="23"/>
-      <c r="M139" s="24"/>
-    </row>
-    <row r="140" spans="1:13" ht="24" customHeight="1" thickBot="1">
-      <c r="A140" s="41" t="s">
+      <c r="K142" s="22"/>
+      <c r="L142" s="23"/>
+      <c r="M142" s="24"/>
+      <c r="O142" s="103">
+        <v>1</v>
+      </c>
+      <c r="P142" s="103">
+        <v>2</v>
+      </c>
+      <c r="Q142" s="103">
+        <v>3</v>
+      </c>
+      <c r="R142" s="103"/>
+      <c r="S142" s="103"/>
+      <c r="T142" s="103"/>
+      <c r="U142" s="103"/>
+      <c r="V142" s="103"/>
+      <c r="W142" s="103"/>
+      <c r="Y142" s="103"/>
+    </row>
+    <row r="143" spans="1:25" ht="24" customHeight="1" thickBot="1">
+      <c r="A143" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="B140" s="85" t="s">
+      <c r="B143" s="85" t="s">
         <v>331</v>
       </c>
-      <c r="C140" s="100" t="s">
+      <c r="C143" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="D140" s="26">
+      <c r="D143" s="26">
         <v>255</v>
       </c>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26" t="s">
+      <c r="E143" s="26"/>
+      <c r="F143" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-      <c r="J140" s="26"/>
-      <c r="K140" s="42"/>
-      <c r="L140" s="26"/>
-      <c r="M140" s="27"/>
-    </row>
-    <row r="141" spans="1:13" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A141" s="91"/>
-      <c r="B141" s="91"/>
-      <c r="C141" s="92"/>
-      <c r="D141" s="92"/>
-      <c r="E141" s="92"/>
-      <c r="F141" s="92"/>
-      <c r="G141" s="92"/>
-      <c r="H141" s="92"/>
-      <c r="I141" s="92"/>
-      <c r="J141" s="92"/>
-      <c r="K141" s="92"/>
-      <c r="L141" s="92"/>
-      <c r="M141" s="92"/>
-    </row>
-    <row r="142" spans="1:13" ht="27" customHeight="1">
-      <c r="A142" s="70" t="s">
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="26"/>
+      <c r="K143" s="42"/>
+      <c r="L143" s="26"/>
+      <c r="M143" s="27"/>
+      <c r="O143" s="103" t="s">
+        <v>395</v>
+      </c>
+      <c r="P143" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q143" s="103" t="s">
+        <v>399</v>
+      </c>
+      <c r="R143" s="103"/>
+      <c r="S143" s="103"/>
+      <c r="T143" s="103"/>
+      <c r="U143" s="103"/>
+      <c r="V143" s="103"/>
+      <c r="W143" s="103"/>
+      <c r="Y143" s="103"/>
+    </row>
+    <row r="144" spans="1:25" s="61" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A144" s="91"/>
+      <c r="B144" s="91"/>
+      <c r="C144" s="92"/>
+      <c r="D144" s="92"/>
+      <c r="E144" s="92"/>
+      <c r="F144" s="92"/>
+      <c r="G144" s="92"/>
+      <c r="H144" s="92"/>
+      <c r="I144" s="92"/>
+      <c r="J144" s="92"/>
+      <c r="K144" s="92"/>
+      <c r="L144" s="92"/>
+      <c r="M144" s="92"/>
+      <c r="O144" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="P144" s="103" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q144" s="103" t="s">
+        <v>400</v>
+      </c>
+      <c r="R144" s="103"/>
+      <c r="S144" s="103"/>
+      <c r="T144" s="103"/>
+      <c r="U144" s="103"/>
+      <c r="V144" s="103"/>
+      <c r="W144" s="103"/>
+      <c r="X144" s="103"/>
+      <c r="Y144" s="103"/>
+    </row>
+    <row r="145" spans="1:28" ht="27" customHeight="1">
+      <c r="A145" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="B142" s="71"/>
-      <c r="C142" s="72"/>
-      <c r="D142" s="72"/>
-      <c r="E142" s="72"/>
-      <c r="F142" s="72"/>
-      <c r="G142" s="72"/>
-      <c r="H142" s="72"/>
-      <c r="I142" s="72"/>
-      <c r="J142" s="72"/>
-      <c r="K142" s="72"/>
-      <c r="L142" s="72"/>
-      <c r="M142" s="73"/>
-    </row>
-    <row r="143" spans="1:13" ht="24" customHeight="1">
-      <c r="A143" s="17" t="s">
+      <c r="B145" s="71"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
+      <c r="K145" s="72"/>
+      <c r="L145" s="72"/>
+      <c r="M145" s="73"/>
+    </row>
+    <row r="146" spans="1:28" ht="24" customHeight="1">
+      <c r="A146" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B143" s="45" t="s">
+      <c r="B146" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C143" s="18" t="s">
+      <c r="C146" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D143" s="18" t="s">
+      <c r="D146" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E143" s="18" t="s">
+      <c r="E146" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F143" s="18" t="s">
+      <c r="F146" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G143" s="18" t="s">
+      <c r="G146" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H143" s="18" t="s">
+      <c r="H146" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I143" s="19" t="s">
+      <c r="I146" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J143" s="18" t="s">
+      <c r="J146" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K143" s="18" t="s">
+      <c r="K146" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L143" s="18" t="s">
+      <c r="L146" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M143" s="20" t="s">
+      <c r="M146" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="24" customHeight="1">
-      <c r="A144" s="21" t="s">
+    <row r="147" spans="1:28" ht="24" customHeight="1">
+      <c r="A147" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="B144" s="83" t="s">
+      <c r="B147" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="C144" s="32" t="s">
+      <c r="C147" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D144" s="23">
+      <c r="D147" s="23">
         <v>11</v>
       </c>
-      <c r="E144" s="23"/>
-      <c r="F144" s="23"/>
-      <c r="G144" s="23"/>
-      <c r="H144" s="23"/>
-      <c r="I144" s="23" t="s">
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23"/>
+      <c r="I147" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J144" s="23" t="s">
+      <c r="J147" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K144" s="22"/>
-      <c r="L144" s="23"/>
-      <c r="M144" s="24"/>
-    </row>
-    <row r="145" spans="1:27" ht="24" customHeight="1">
-      <c r="A145" s="21" t="s">
+      <c r="K147" s="22"/>
+      <c r="L147" s="23"/>
+      <c r="M147" s="24"/>
+    </row>
+    <row r="148" spans="1:28" ht="24" customHeight="1">
+      <c r="A148" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="B145" s="84" t="s">
+      <c r="B148" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="C145" s="32" t="s">
+      <c r="C148" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D145" s="23">
+      <c r="D148" s="23">
         <v>11</v>
       </c>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="32"/>
-      <c r="I145" s="32"/>
-      <c r="J145" s="32"/>
-      <c r="K145" s="22" t="s">
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
+      <c r="J148" s="32"/>
+      <c r="K148" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L145" s="32"/>
-      <c r="M145" s="81"/>
-    </row>
-    <row r="146" spans="1:27" ht="24" customHeight="1">
-      <c r="A146" s="21" t="s">
+      <c r="L148" s="32"/>
+      <c r="M148" s="81"/>
+    </row>
+    <row r="149" spans="1:28" ht="24" customHeight="1">
+      <c r="A149" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="B146" s="84" t="s">
+      <c r="B149" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="C146" s="32" t="s">
+      <c r="C149" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D146" s="23">
+      <c r="D149" s="23">
         <v>11</v>
       </c>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="32"/>
-      <c r="J146" s="32"/>
-      <c r="K146" s="22" t="s">
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="32"/>
+      <c r="J149" s="32"/>
+      <c r="K149" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L146" s="32"/>
-      <c r="M146" s="81"/>
-    </row>
-    <row r="147" spans="1:27" ht="24" customHeight="1" thickBot="1">
-      <c r="A147" s="41" t="s">
+      <c r="L149" s="32"/>
+      <c r="M149" s="81"/>
+    </row>
+    <row r="150" spans="1:28" ht="24" customHeight="1" thickBot="1">
+      <c r="A150" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="B147" s="86" t="s">
+      <c r="B150" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C147" s="87" t="s">
+      <c r="C150" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="D147" s="88"/>
-      <c r="E147" s="89"/>
-      <c r="F147" s="89"/>
-      <c r="G147" s="89"/>
-      <c r="H147" s="89"/>
-      <c r="I147" s="89"/>
-      <c r="J147" s="89"/>
-      <c r="K147" s="42"/>
-      <c r="L147" s="89"/>
-      <c r="M147" s="90"/>
-      <c r="N147" s="74"/>
-      <c r="O147" s="74"/>
-      <c r="P147" s="74"/>
-      <c r="Q147" s="74"/>
-      <c r="R147" s="74"/>
-      <c r="S147" s="74"/>
-      <c r="T147" s="74"/>
-      <c r="U147" s="74"/>
-      <c r="V147" s="74"/>
-      <c r="W147" s="74"/>
-      <c r="X147" s="74"/>
-      <c r="Y147" s="74"/>
-      <c r="Z147" s="74"/>
-      <c r="AA147" s="74"/>
-    </row>
-    <row r="148" spans="1:27" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A148" s="91"/>
-      <c r="B148" s="91"/>
-      <c r="C148" s="92"/>
-      <c r="D148" s="92"/>
-      <c r="E148" s="92"/>
-      <c r="F148" s="92"/>
-      <c r="G148" s="92"/>
-      <c r="H148" s="92"/>
-      <c r="I148" s="92"/>
-      <c r="J148" s="92"/>
-      <c r="K148" s="92"/>
-      <c r="L148" s="92"/>
-      <c r="M148" s="92"/>
-      <c r="N148" s="61"/>
-      <c r="O148" s="61"/>
-    </row>
-    <row r="149" spans="1:27" ht="27" customHeight="1">
-      <c r="A149" s="70" t="s">
+      <c r="D150" s="88"/>
+      <c r="E150" s="89"/>
+      <c r="F150" s="89"/>
+      <c r="G150" s="89"/>
+      <c r="H150" s="89"/>
+      <c r="I150" s="89"/>
+      <c r="J150" s="89"/>
+      <c r="K150" s="42"/>
+      <c r="L150" s="89"/>
+      <c r="M150" s="90"/>
+      <c r="N150" s="74"/>
+      <c r="O150" s="74"/>
+      <c r="P150" s="74"/>
+      <c r="Q150" s="74"/>
+      <c r="R150" s="74"/>
+      <c r="S150" s="74"/>
+      <c r="T150" s="74"/>
+      <c r="U150" s="74"/>
+      <c r="V150" s="74"/>
+      <c r="W150" s="74"/>
+      <c r="X150" s="74"/>
+      <c r="Y150" s="74"/>
+      <c r="Z150" s="74"/>
+      <c r="AA150" s="74"/>
+      <c r="AB150" s="74"/>
+    </row>
+    <row r="151" spans="1:28" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A151" s="91"/>
+      <c r="B151" s="91"/>
+      <c r="C151" s="92"/>
+      <c r="D151" s="92"/>
+      <c r="E151" s="92"/>
+      <c r="F151" s="92"/>
+      <c r="G151" s="92"/>
+      <c r="H151" s="92"/>
+      <c r="I151" s="92"/>
+      <c r="J151" s="92"/>
+      <c r="K151" s="92"/>
+      <c r="L151" s="92"/>
+      <c r="M151" s="92"/>
+      <c r="N151" s="61"/>
+      <c r="O151" s="61"/>
+    </row>
+    <row r="152" spans="1:28" ht="27" customHeight="1">
+      <c r="A152" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="B149" s="71"/>
-      <c r="C149" s="72"/>
-      <c r="D149" s="72"/>
-      <c r="E149" s="72"/>
-      <c r="F149" s="72"/>
-      <c r="G149" s="72"/>
-      <c r="H149" s="72"/>
-      <c r="I149" s="72"/>
-      <c r="J149" s="72"/>
-      <c r="K149" s="72"/>
-      <c r="L149" s="72"/>
-      <c r="M149" s="73"/>
-    </row>
-    <row r="150" spans="1:27" ht="24" customHeight="1">
-      <c r="A150" s="17" t="s">
+      <c r="B152" s="71"/>
+      <c r="C152" s="72"/>
+      <c r="D152" s="72"/>
+      <c r="E152" s="72"/>
+      <c r="F152" s="72"/>
+      <c r="G152" s="72"/>
+      <c r="H152" s="72"/>
+      <c r="I152" s="72"/>
+      <c r="J152" s="72"/>
+      <c r="K152" s="72"/>
+      <c r="L152" s="72"/>
+      <c r="M152" s="73"/>
+    </row>
+    <row r="153" spans="1:28" ht="24" customHeight="1">
+      <c r="A153" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B150" s="45" t="s">
+      <c r="B153" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C153" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D153" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E150" s="18" t="s">
+      <c r="E153" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F150" s="18" t="s">
+      <c r="F153" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G150" s="18" t="s">
+      <c r="G153" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H150" s="18" t="s">
+      <c r="H153" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I150" s="19" t="s">
+      <c r="I153" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J150" s="18" t="s">
+      <c r="J153" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K150" s="18" t="s">
+      <c r="K153" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L150" s="18" t="s">
+      <c r="L153" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M150" s="20" t="s">
+      <c r="M153" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="24" customHeight="1">
-      <c r="A151" s="21" t="s">
+    <row r="154" spans="1:28" ht="24" customHeight="1">
+      <c r="A154" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B154" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C151" s="23" t="s">
+      <c r="C154" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D151" s="23">
+      <c r="D154" s="23">
         <v>11</v>
       </c>
-      <c r="E151" s="23"/>
-      <c r="F151" s="23"/>
-      <c r="G151" s="23"/>
-      <c r="H151" s="23"/>
-      <c r="I151" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J151" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K151" s="22"/>
-      <c r="L151" s="23"/>
-      <c r="M151" s="24"/>
-    </row>
-    <row r="152" spans="1:27" ht="24" customHeight="1">
-      <c r="A152" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C152" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D152" s="23">
-        <v>11</v>
-      </c>
-      <c r="E152" s="23"/>
-      <c r="F152" s="23"/>
-      <c r="G152" s="23"/>
-      <c r="H152" s="23"/>
-      <c r="I152" s="23"/>
-      <c r="J152" s="23"/>
-      <c r="K152" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L152" s="23"/>
-      <c r="M152" s="24"/>
-    </row>
-    <row r="153" spans="1:27" s="102" customFormat="1" ht="24" customHeight="1">
-      <c r="A153" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D153" s="23">
-        <v>11</v>
-      </c>
-      <c r="E153" s="23"/>
-      <c r="F153" s="23"/>
-      <c r="G153" s="23"/>
-      <c r="H153" s="23"/>
-      <c r="I153" s="23"/>
-      <c r="J153" s="23"/>
-      <c r="K153" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L153" s="23"/>
-      <c r="M153" s="24"/>
-    </row>
-    <row r="154" spans="1:27" ht="24" customHeight="1">
-      <c r="A154" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C154" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D154" s="23">
-        <v>30000</v>
-      </c>
       <c r="E154" s="23"/>
-      <c r="F154" s="22" t="s">
-        <v>43</v>
-      </c>
+      <c r="F154" s="23"/>
       <c r="G154" s="23"/>
       <c r="H154" s="23"/>
-      <c r="I154" s="23"/>
-      <c r="J154" s="23"/>
+      <c r="I154" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J154" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="24"/>
     </row>
-    <row r="155" spans="1:27" ht="24" customHeight="1">
+    <row r="155" spans="1:28" ht="24" customHeight="1">
       <c r="A155" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C155" s="23" t="s">
         <v>38</v>
@@ -7491,202 +8059,202 @@
       <c r="H155" s="23"/>
       <c r="I155" s="23"/>
       <c r="J155" s="23"/>
-      <c r="K155" s="22"/>
+      <c r="K155" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="L155" s="23"/>
       <c r="M155" s="24"/>
     </row>
-    <row r="156" spans="1:27" ht="24" customHeight="1" thickBot="1">
-      <c r="A156" s="95" t="s">
+    <row r="156" spans="1:28" s="102" customFormat="1" ht="24" customHeight="1">
+      <c r="A156" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D156" s="23">
+        <v>11</v>
+      </c>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="23"/>
+      <c r="I156" s="23"/>
+      <c r="J156" s="23"/>
+      <c r="K156" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L156" s="23"/>
+      <c r="M156" s="24"/>
+      <c r="X156" s="103"/>
+    </row>
+    <row r="157" spans="1:28" ht="24" customHeight="1">
+      <c r="A157" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D157" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E157" s="23"/>
+      <c r="F157" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="23"/>
+      <c r="K157" s="22"/>
+      <c r="L157" s="23"/>
+      <c r="M157" s="24"/>
+    </row>
+    <row r="158" spans="1:28" ht="24" customHeight="1">
+      <c r="A158" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C158" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D158" s="23">
+        <v>11</v>
+      </c>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="23"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="23"/>
+      <c r="K158" s="22"/>
+      <c r="L158" s="23"/>
+      <c r="M158" s="24"/>
+    </row>
+    <row r="159" spans="1:28" ht="24" customHeight="1" thickBot="1">
+      <c r="A159" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="B156" s="96" t="s">
+      <c r="B159" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C156" s="97" t="s">
+      <c r="C159" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="D156" s="98"/>
-      <c r="E156" s="99"/>
-      <c r="F156" s="99"/>
-      <c r="G156" s="99"/>
-      <c r="H156" s="99"/>
-      <c r="I156" s="99"/>
-      <c r="J156" s="99"/>
-      <c r="K156" s="100"/>
-      <c r="L156" s="99"/>
-      <c r="M156" s="101"/>
-      <c r="N156" s="74"/>
-      <c r="O156" s="74"/>
-      <c r="P156" s="74"/>
-      <c r="Q156" s="74"/>
-      <c r="R156" s="74"/>
-      <c r="S156" s="74"/>
-      <c r="T156" s="74"/>
-      <c r="U156" s="74"/>
-      <c r="V156" s="74"/>
-      <c r="W156" s="74"/>
-      <c r="X156" s="74"/>
-      <c r="Y156" s="74"/>
-      <c r="Z156" s="74"/>
-      <c r="AA156" s="74"/>
-    </row>
-    <row r="157" spans="1:27" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A157" s="91"/>
-      <c r="B157" s="91"/>
-      <c r="C157" s="92"/>
-      <c r="D157" s="92"/>
-      <c r="E157" s="92"/>
-      <c r="F157" s="92"/>
-      <c r="G157" s="92"/>
-      <c r="H157" s="92"/>
-      <c r="I157" s="92"/>
-      <c r="J157" s="92"/>
-      <c r="K157" s="92"/>
-      <c r="L157" s="92"/>
-      <c r="M157" s="92"/>
-      <c r="N157" s="61"/>
-    </row>
-    <row r="158" spans="1:27" ht="27" customHeight="1">
-      <c r="A158" s="70" t="s">
+      <c r="D159" s="98"/>
+      <c r="E159" s="99"/>
+      <c r="F159" s="99"/>
+      <c r="G159" s="99"/>
+      <c r="H159" s="99"/>
+      <c r="I159" s="99"/>
+      <c r="J159" s="99"/>
+      <c r="K159" s="100"/>
+      <c r="L159" s="99"/>
+      <c r="M159" s="101"/>
+      <c r="N159" s="74"/>
+      <c r="O159" s="74"/>
+      <c r="P159" s="74"/>
+      <c r="Q159" s="74"/>
+      <c r="R159" s="74"/>
+      <c r="S159" s="74"/>
+      <c r="T159" s="74"/>
+      <c r="U159" s="74"/>
+      <c r="V159" s="74"/>
+      <c r="W159" s="74"/>
+      <c r="X159" s="74"/>
+      <c r="Y159" s="74"/>
+      <c r="Z159" s="74"/>
+      <c r="AA159" s="74"/>
+      <c r="AB159" s="74"/>
+    </row>
+    <row r="160" spans="1:28" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A160" s="91"/>
+      <c r="B160" s="91"/>
+      <c r="C160" s="92"/>
+      <c r="D160" s="92"/>
+      <c r="E160" s="92"/>
+      <c r="F160" s="92"/>
+      <c r="G160" s="92"/>
+      <c r="H160" s="92"/>
+      <c r="I160" s="92"/>
+      <c r="J160" s="92"/>
+      <c r="K160" s="92"/>
+      <c r="L160" s="92"/>
+      <c r="M160" s="92"/>
+      <c r="N160" s="61"/>
+    </row>
+    <row r="161" spans="1:28" ht="27" customHeight="1">
+      <c r="A161" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="B158" s="71"/>
-      <c r="C158" s="72"/>
-      <c r="D158" s="72"/>
-      <c r="E158" s="72"/>
-      <c r="F158" s="72"/>
-      <c r="G158" s="72"/>
-      <c r="H158" s="72"/>
-      <c r="I158" s="72"/>
-      <c r="J158" s="72"/>
-      <c r="K158" s="72"/>
-      <c r="L158" s="72"/>
-      <c r="M158" s="73"/>
-    </row>
-    <row r="159" spans="1:27" ht="24" customHeight="1">
-      <c r="A159" s="17" t="s">
+      <c r="B161" s="71"/>
+      <c r="C161" s="72"/>
+      <c r="D161" s="72"/>
+      <c r="E161" s="72"/>
+      <c r="F161" s="72"/>
+      <c r="G161" s="72"/>
+      <c r="H161" s="72"/>
+      <c r="I161" s="72"/>
+      <c r="J161" s="72"/>
+      <c r="K161" s="72"/>
+      <c r="L161" s="72"/>
+      <c r="M161" s="73"/>
+    </row>
+    <row r="162" spans="1:28" ht="24" customHeight="1">
+      <c r="A162" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B159" s="45" t="s">
+      <c r="B162" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C162" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D162" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E159" s="18" t="s">
+      <c r="E162" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F159" s="18" t="s">
+      <c r="F162" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G159" s="18" t="s">
+      <c r="G162" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H159" s="18" t="s">
+      <c r="H162" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I159" s="19" t="s">
+      <c r="I162" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J159" s="18" t="s">
+      <c r="J162" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K159" s="18" t="s">
+      <c r="K162" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L159" s="18" t="s">
+      <c r="L162" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M159" s="20" t="s">
+      <c r="M162" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="24" customHeight="1">
-      <c r="A160" s="21" t="s">
+    <row r="163" spans="1:28" ht="24" customHeight="1">
+      <c r="A163" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B163" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="C160" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D160" s="23">
-        <v>11</v>
-      </c>
-      <c r="E160" s="23"/>
-      <c r="F160" s="23"/>
-      <c r="G160" s="23"/>
-      <c r="H160" s="23"/>
-      <c r="I160" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J160" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K160" s="22"/>
-      <c r="L160" s="23"/>
-      <c r="M160" s="24"/>
-    </row>
-    <row r="161" spans="1:27" ht="24" customHeight="1">
-      <c r="A161" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C161" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D161" s="23">
-        <v>11</v>
-      </c>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="I161" s="23"/>
-      <c r="J161" s="23"/>
-      <c r="K161" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L161" s="23"/>
-      <c r="M161" s="24"/>
-    </row>
-    <row r="162" spans="1:27" ht="24" customHeight="1">
-      <c r="A162" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C162" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D162" s="23">
-        <v>11</v>
-      </c>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32"/>
-      <c r="G162" s="32"/>
-      <c r="H162" s="32"/>
-      <c r="I162" s="23"/>
-      <c r="J162" s="23"/>
-      <c r="K162" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L162" s="32"/>
-      <c r="M162" s="81"/>
-    </row>
-    <row r="163" spans="1:27" ht="24" customHeight="1">
-      <c r="A163" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>337</v>
       </c>
       <c r="C163" s="32" t="s">
         <v>38</v>
@@ -7694,350 +8262,666 @@
       <c r="D163" s="23">
         <v>11</v>
       </c>
-      <c r="E163" s="32"/>
-      <c r="F163" s="32"/>
-      <c r="G163" s="32"/>
-      <c r="H163" s="32"/>
-      <c r="I163" s="23"/>
-      <c r="J163" s="23"/>
-      <c r="K163" s="22" t="s">
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="23"/>
+      <c r="I163" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J163" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K163" s="22"/>
+      <c r="L163" s="23"/>
+      <c r="M163" s="24"/>
+    </row>
+    <row r="164" spans="1:28" ht="24" customHeight="1">
+      <c r="A164" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D164" s="23">
+        <v>11</v>
+      </c>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
+      <c r="I164" s="23"/>
+      <c r="J164" s="23"/>
+      <c r="K164" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L163" s="32"/>
-      <c r="M163" s="81"/>
-    </row>
-    <row r="164" spans="1:27" ht="24" customHeight="1">
-      <c r="A164" s="21" t="s">
+      <c r="L164" s="23"/>
+      <c r="M164" s="24"/>
+    </row>
+    <row r="165" spans="1:28" ht="24" customHeight="1">
+      <c r="A165" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C165" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D165" s="23">
+        <v>11</v>
+      </c>
+      <c r="E165" s="32"/>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="23"/>
+      <c r="J165" s="23"/>
+      <c r="K165" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L165" s="32"/>
+      <c r="M165" s="81"/>
+    </row>
+    <row r="166" spans="1:28" ht="24" customHeight="1">
+      <c r="A166" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C166" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D166" s="23">
+        <v>11</v>
+      </c>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="32"/>
+      <c r="I166" s="23"/>
+      <c r="J166" s="23"/>
+      <c r="K166" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L166" s="32"/>
+      <c r="M166" s="81"/>
+    </row>
+    <row r="167" spans="1:28" ht="24" customHeight="1">
+      <c r="A167" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B167" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C164" s="23" t="s">
+      <c r="C167" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D164" s="23">
+      <c r="D167" s="23">
         <v>30000</v>
       </c>
-      <c r="E164" s="23"/>
-      <c r="F164" s="22" t="s">
+      <c r="E167" s="23"/>
+      <c r="F167" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G164" s="32"/>
-      <c r="H164" s="32"/>
-      <c r="I164" s="32"/>
-      <c r="J164" s="32"/>
-      <c r="K164" s="22"/>
-      <c r="L164" s="32"/>
-      <c r="M164" s="81"/>
-    </row>
-    <row r="165" spans="1:27" ht="24" customHeight="1" thickBot="1">
-      <c r="A165" s="41" t="s">
+      <c r="G167" s="32"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="22"/>
+      <c r="L167" s="32"/>
+      <c r="M167" s="81"/>
+    </row>
+    <row r="168" spans="1:28" ht="24" customHeight="1" thickBot="1">
+      <c r="A168" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B168" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C165" s="87" t="s">
+      <c r="C168" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="D165" s="88"/>
-      <c r="E165" s="89"/>
-      <c r="F165" s="89"/>
-      <c r="G165" s="89"/>
-      <c r="H165" s="89"/>
-      <c r="I165" s="89"/>
-      <c r="J165" s="89"/>
-      <c r="K165" s="42"/>
-      <c r="L165" s="89"/>
-      <c r="M165" s="90"/>
-      <c r="N165" s="74"/>
-      <c r="O165" s="74"/>
-      <c r="P165" s="74"/>
-      <c r="Q165" s="74"/>
-      <c r="R165" s="74"/>
-      <c r="S165" s="74"/>
-      <c r="T165" s="74"/>
-      <c r="U165" s="74"/>
-      <c r="V165" s="74"/>
-      <c r="W165" s="74"/>
-      <c r="X165" s="74"/>
-      <c r="Y165" s="74"/>
-      <c r="Z165" s="74"/>
-      <c r="AA165" s="74"/>
-    </row>
-    <row r="166" spans="1:27" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A166" s="91"/>
-      <c r="B166" s="91"/>
-      <c r="C166" s="92"/>
-      <c r="D166" s="92"/>
-      <c r="E166" s="92"/>
-      <c r="F166" s="92"/>
-      <c r="G166" s="92"/>
-      <c r="H166" s="92"/>
-      <c r="I166" s="92"/>
-      <c r="J166" s="92"/>
-      <c r="K166" s="92"/>
-      <c r="L166" s="92"/>
-      <c r="M166" s="92"/>
-      <c r="N166" s="61"/>
-      <c r="O166" s="61"/>
-    </row>
-    <row r="167" spans="1:27" ht="27" customHeight="1">
-      <c r="A167" s="70" t="s">
+      <c r="D168" s="88"/>
+      <c r="E168" s="89"/>
+      <c r="F168" s="89"/>
+      <c r="G168" s="89"/>
+      <c r="H168" s="89"/>
+      <c r="I168" s="89"/>
+      <c r="J168" s="89"/>
+      <c r="K168" s="42"/>
+      <c r="L168" s="89"/>
+      <c r="M168" s="90"/>
+      <c r="N168" s="74"/>
+      <c r="O168" s="74"/>
+      <c r="P168" s="74"/>
+      <c r="Q168" s="74"/>
+      <c r="R168" s="74"/>
+      <c r="S168" s="74"/>
+      <c r="T168" s="74"/>
+      <c r="U168" s="74"/>
+      <c r="V168" s="74"/>
+      <c r="W168" s="74"/>
+      <c r="X168" s="74"/>
+      <c r="Y168" s="74"/>
+      <c r="Z168" s="74"/>
+      <c r="AA168" s="74"/>
+      <c r="AB168" s="74"/>
+    </row>
+    <row r="169" spans="1:28" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A169" s="91"/>
+      <c r="B169" s="91"/>
+      <c r="C169" s="92"/>
+      <c r="D169" s="92"/>
+      <c r="E169" s="92"/>
+      <c r="F169" s="92"/>
+      <c r="G169" s="92"/>
+      <c r="H169" s="92"/>
+      <c r="I169" s="92"/>
+      <c r="J169" s="92"/>
+      <c r="K169" s="92"/>
+      <c r="L169" s="92"/>
+      <c r="M169" s="92"/>
+      <c r="N169" s="61"/>
+      <c r="O169" s="61"/>
+    </row>
+    <row r="170" spans="1:28" ht="27" customHeight="1">
+      <c r="A170" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="B167" s="71"/>
-      <c r="C167" s="72"/>
-      <c r="D167" s="72"/>
-      <c r="E167" s="72"/>
-      <c r="F167" s="72"/>
-      <c r="G167" s="72"/>
-      <c r="H167" s="72"/>
-      <c r="I167" s="72"/>
-      <c r="J167" s="72"/>
-      <c r="K167" s="72"/>
-      <c r="L167" s="72"/>
-      <c r="M167" s="73"/>
-    </row>
-    <row r="168" spans="1:27" ht="24" customHeight="1">
-      <c r="A168" s="17" t="s">
+      <c r="B170" s="71"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="72"/>
+      <c r="E170" s="72"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="72"/>
+      <c r="H170" s="72"/>
+      <c r="I170" s="72"/>
+      <c r="J170" s="72"/>
+      <c r="K170" s="72"/>
+      <c r="L170" s="72"/>
+      <c r="M170" s="73"/>
+    </row>
+    <row r="171" spans="1:28" ht="24" customHeight="1">
+      <c r="A171" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B168" s="45" t="s">
+      <c r="B171" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C171" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D168" s="18" t="s">
+      <c r="D171" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E168" s="18" t="s">
+      <c r="E171" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F168" s="18" t="s">
+      <c r="F171" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G168" s="18" t="s">
+      <c r="G171" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H168" s="18" t="s">
+      <c r="H171" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I168" s="19" t="s">
+      <c r="I171" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J168" s="18" t="s">
+      <c r="J171" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K168" s="18" t="s">
+      <c r="K171" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L168" s="18" t="s">
+      <c r="L171" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M168" s="20" t="s">
+      <c r="M171" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="24" customHeight="1">
-      <c r="A169" s="21" t="s">
+    <row r="172" spans="1:28" ht="24" customHeight="1">
+      <c r="A172" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B172" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C169" s="32" t="s">
+      <c r="C172" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D169" s="23">
+      <c r="D172" s="23">
         <v>11</v>
       </c>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32"/>
-      <c r="G169" s="32"/>
-      <c r="H169" s="32"/>
-      <c r="I169" s="23" t="s">
+      <c r="E172" s="32"/>
+      <c r="F172" s="32"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="32"/>
+      <c r="I172" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J169" s="23" t="s">
+      <c r="J172" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K169" s="22"/>
-      <c r="L169" s="32"/>
-      <c r="M169" s="81"/>
-    </row>
-    <row r="170" spans="1:27" ht="24" customHeight="1" thickBot="1">
-      <c r="A170" s="41" t="s">
+      <c r="K172" s="22"/>
+      <c r="L172" s="32"/>
+      <c r="M172" s="81"/>
+      <c r="O172" s="34">
+        <v>1</v>
+      </c>
+      <c r="P172" s="34">
+        <v>2</v>
+      </c>
+      <c r="Q172" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" ht="24" customHeight="1" thickBot="1">
+      <c r="A173" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="86" t="s">
+      <c r="B173" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="C170" s="106" t="s">
+      <c r="C173" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="D170" s="26">
+      <c r="D173" s="26">
         <v>255</v>
       </c>
-      <c r="E170" s="106"/>
-      <c r="F170" s="106" t="s">
+      <c r="E173" s="105"/>
+      <c r="F173" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="G170" s="106"/>
-      <c r="H170" s="106"/>
-      <c r="I170" s="106"/>
-      <c r="J170" s="106"/>
-      <c r="K170" s="42"/>
-      <c r="L170" s="106"/>
-      <c r="M170" s="107"/>
-    </row>
-    <row r="171" spans="1:27" ht="19.5" customHeight="1">
-      <c r="A171" s="36"/>
-      <c r="B171" s="36"/>
-      <c r="C171" s="36"/>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-    </row>
-    <row r="172" spans="1:27" ht="19.5" customHeight="1">
-      <c r="A172" s="36"/>
-      <c r="B172" s="36"/>
-      <c r="C172" s="36"/>
-      <c r="D172" s="36"/>
-      <c r="E172" s="36"/>
-      <c r="F172" s="36"/>
-    </row>
-    <row r="173" spans="1:27" ht="19.5" customHeight="1">
-      <c r="A173" s="36"/>
-      <c r="B173" s="36"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="36"/>
-      <c r="E173" s="36"/>
-      <c r="F173" s="36"/>
-    </row>
-    <row r="174" spans="1:27" ht="19.5" customHeight="1">
-      <c r="A174" s="36"/>
-      <c r="B174" s="36"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="36"/>
-      <c r="E174" s="36"/>
-      <c r="F174" s="36"/>
-    </row>
-    <row r="175" spans="1:27" ht="19.5" customHeight="1">
-      <c r="A175" s="36"/>
-      <c r="B175" s="36"/>
-      <c r="C175" s="36"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="36"/>
-    </row>
-    <row r="176" spans="1:27" ht="19.5" customHeight="1">
-      <c r="A176" s="36"/>
-      <c r="B176" s="36"/>
-      <c r="C176" s="36"/>
-      <c r="D176" s="36"/>
-      <c r="E176" s="36"/>
-      <c r="F176" s="36"/>
-    </row>
-    <row r="177" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A177" s="36"/>
-      <c r="B177" s="36"/>
-      <c r="C177" s="36"/>
-      <c r="D177" s="36"/>
-      <c r="E177" s="36"/>
-      <c r="F177" s="36"/>
-    </row>
-    <row r="178" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A178" s="36"/>
-      <c r="B178" s="36"/>
-      <c r="C178" s="36"/>
-      <c r="D178" s="36"/>
-      <c r="E178" s="36"/>
-      <c r="F178" s="36"/>
-    </row>
-    <row r="179" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A179" s="36"/>
-      <c r="B179" s="36"/>
-      <c r="C179" s="36"/>
-      <c r="D179" s="36"/>
-      <c r="E179" s="36"/>
-      <c r="F179" s="36"/>
-    </row>
-    <row r="180" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A180" s="36"/>
-      <c r="B180" s="36"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="36"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="36"/>
-    </row>
-    <row r="181" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A181" s="36"/>
-      <c r="B181" s="36"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="36"/>
-      <c r="E181" s="36"/>
-      <c r="F181" s="36"/>
-    </row>
-    <row r="182" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A182" s="36"/>
-      <c r="B182" s="36"/>
-      <c r="C182" s="36"/>
-      <c r="D182" s="36"/>
-      <c r="E182" s="36"/>
-      <c r="F182" s="36"/>
-    </row>
-    <row r="183" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A183" s="36"/>
-      <c r="B183" s="36"/>
-      <c r="C183" s="36"/>
-      <c r="D183" s="36"/>
-      <c r="E183" s="36"/>
-      <c r="F183" s="36"/>
-    </row>
-    <row r="184" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A184" s="36"/>
-      <c r="B184" s="36"/>
-      <c r="C184" s="36"/>
-      <c r="D184" s="36"/>
-      <c r="E184" s="36"/>
-      <c r="F184" s="36"/>
-    </row>
-    <row r="185" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A185" s="36"/>
-      <c r="B185" s="36"/>
-      <c r="C185" s="36"/>
-      <c r="D185" s="36"/>
-      <c r="E185" s="36"/>
-      <c r="F185" s="36"/>
-    </row>
-    <row r="186" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A186" s="36"/>
-      <c r="B186" s="36"/>
-      <c r="C186" s="36"/>
-      <c r="D186" s="36"/>
-      <c r="E186" s="36"/>
-      <c r="F186" s="36"/>
-    </row>
-    <row r="187" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A187" s="36"/>
-      <c r="B187" s="36"/>
-      <c r="C187" s="36"/>
-      <c r="D187" s="36"/>
-      <c r="E187" s="36"/>
-      <c r="F187" s="36"/>
-    </row>
-    <row r="188" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A188" s="36"/>
-      <c r="B188" s="36"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="36"/>
-      <c r="E188" s="36"/>
-      <c r="F188" s="36"/>
-    </row>
-    <row r="189" spans="1:6" ht="19.5" customHeight="1">
+      <c r="G173" s="105"/>
+      <c r="H173" s="105"/>
+      <c r="I173" s="105"/>
+      <c r="J173" s="105"/>
+      <c r="K173" s="42"/>
+      <c r="L173" s="105"/>
+      <c r="M173" s="106"/>
+      <c r="O173" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="P173" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q173" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" s="103" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A174" s="91"/>
+      <c r="B174" s="91"/>
+      <c r="C174" s="92"/>
+      <c r="D174" s="92"/>
+      <c r="E174" s="92"/>
+      <c r="F174" s="92"/>
+      <c r="G174" s="92"/>
+      <c r="H174" s="92"/>
+      <c r="I174" s="92"/>
+      <c r="J174" s="92"/>
+      <c r="K174" s="92"/>
+      <c r="L174" s="92"/>
+      <c r="M174" s="92"/>
+      <c r="N174" s="61"/>
+    </row>
+    <row r="175" spans="1:28" s="114" customFormat="1" ht="27" customHeight="1">
+      <c r="A175" s="110" t="s">
+        <v>356</v>
+      </c>
+      <c r="B175" s="111"/>
+      <c r="C175" s="112"/>
+      <c r="D175" s="112"/>
+      <c r="E175" s="112"/>
+      <c r="F175" s="112"/>
+      <c r="G175" s="112"/>
+      <c r="H175" s="112"/>
+      <c r="I175" s="112"/>
+      <c r="J175" s="112"/>
+      <c r="K175" s="112"/>
+      <c r="L175" s="112"/>
+      <c r="M175" s="113"/>
+    </row>
+    <row r="176" spans="1:28" s="103" customFormat="1" ht="24" customHeight="1">
+      <c r="A176" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B176" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E176" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F176" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G176" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H176" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I176" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J176" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K176" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L176" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M176" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" s="103" customFormat="1" ht="24" customHeight="1">
+      <c r="A177" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C177" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D177" s="23">
+        <v>11</v>
+      </c>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J177" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K177" s="22"/>
+      <c r="L177" s="32"/>
+      <c r="M177" s="81"/>
+    </row>
+    <row r="178" spans="1:15" s="103" customFormat="1" ht="24" customHeight="1">
+      <c r="A178" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B178" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D178" s="23">
+        <v>11</v>
+      </c>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
+      <c r="I178" s="23"/>
+      <c r="J178" s="23"/>
+      <c r="K178" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L178" s="23"/>
+      <c r="M178" s="24"/>
+    </row>
+    <row r="179" spans="1:15" s="103" customFormat="1" ht="24" customHeight="1">
+      <c r="A179" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B179" s="121" t="s">
+        <v>361</v>
+      </c>
+      <c r="C179" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D179" s="23">
+        <v>255</v>
+      </c>
+      <c r="E179" s="23"/>
+      <c r="F179" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G179" s="32"/>
+      <c r="H179" s="32"/>
+      <c r="I179" s="32"/>
+      <c r="J179" s="32"/>
+      <c r="K179" s="22"/>
+      <c r="L179" s="32"/>
+      <c r="M179" s="81"/>
+    </row>
+    <row r="180" spans="1:15" s="103" customFormat="1" ht="24" customHeight="1">
+      <c r="A180" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B180" s="109" t="s">
+        <v>355</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D180" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E180" s="23"/>
+      <c r="F180" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G180" s="32"/>
+      <c r="H180" s="32"/>
+      <c r="I180" s="32"/>
+      <c r="J180" s="32"/>
+      <c r="K180" s="22"/>
+      <c r="L180" s="32"/>
+      <c r="M180" s="81"/>
+    </row>
+    <row r="181" spans="1:15" s="103" customFormat="1" ht="24" customHeight="1">
+      <c r="A181" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C181" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D181" s="22"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="23"/>
+      <c r="G181" s="23"/>
+      <c r="H181" s="23"/>
+      <c r="I181" s="23"/>
+      <c r="J181" s="23"/>
+      <c r="K181" s="23"/>
+      <c r="L181" s="23"/>
+      <c r="M181" s="24"/>
+    </row>
+    <row r="182" spans="1:15" s="103" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A182" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B182" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="26"/>
+      <c r="G182" s="26"/>
+      <c r="H182" s="26"/>
+      <c r="I182" s="26"/>
+      <c r="J182" s="26"/>
+      <c r="K182" s="26"/>
+      <c r="L182" s="26"/>
+      <c r="M182" s="27"/>
+    </row>
+    <row r="183" spans="1:15" s="103" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A183" s="91"/>
+      <c r="B183" s="91"/>
+      <c r="C183" s="92"/>
+      <c r="D183" s="92"/>
+      <c r="E183" s="92"/>
+      <c r="F183" s="92"/>
+      <c r="G183" s="92"/>
+      <c r="H183" s="92"/>
+      <c r="I183" s="92"/>
+      <c r="J183" s="92"/>
+      <c r="K183" s="92"/>
+      <c r="L183" s="92"/>
+      <c r="M183" s="92"/>
+      <c r="N183" s="61"/>
+      <c r="O183" s="61"/>
+    </row>
+    <row r="184" spans="1:15" s="114" customFormat="1" ht="27" customHeight="1">
+      <c r="A184" s="110" t="s">
+        <v>359</v>
+      </c>
+      <c r="B184" s="111"/>
+      <c r="C184" s="112"/>
+      <c r="D184" s="112"/>
+      <c r="E184" s="112"/>
+      <c r="F184" s="112"/>
+      <c r="G184" s="112"/>
+      <c r="H184" s="112"/>
+      <c r="I184" s="112"/>
+      <c r="J184" s="112"/>
+      <c r="K184" s="112"/>
+      <c r="L184" s="112"/>
+      <c r="M184" s="113"/>
+    </row>
+    <row r="185" spans="1:15" s="103" customFormat="1" ht="24" customHeight="1">
+      <c r="A185" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B185" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E185" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G185" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H185" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I185" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J185" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K185" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L185" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M185" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" s="103" customFormat="1" ht="24" customHeight="1">
+      <c r="A186" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D186" s="23">
+        <v>11</v>
+      </c>
+      <c r="E186" s="23"/>
+      <c r="F186" s="23"/>
+      <c r="G186" s="23"/>
+      <c r="H186" s="23"/>
+      <c r="I186" s="23"/>
+      <c r="J186" s="23"/>
+      <c r="K186" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L186" s="23"/>
+      <c r="M186" s="24"/>
+    </row>
+    <row r="187" spans="1:15" s="103" customFormat="1" ht="24" customHeight="1">
+      <c r="A187" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D187" s="23">
+        <v>11</v>
+      </c>
+      <c r="E187" s="23"/>
+      <c r="F187" s="23"/>
+      <c r="G187" s="23"/>
+      <c r="H187" s="23"/>
+      <c r="I187" s="23"/>
+      <c r="J187" s="23"/>
+      <c r="K187" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L187" s="23"/>
+      <c r="M187" s="24"/>
+    </row>
+    <row r="188" spans="1:15" s="103" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A188" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B188" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="26"/>
+      <c r="G188" s="26"/>
+      <c r="H188" s="26"/>
+      <c r="I188" s="26"/>
+      <c r="J188" s="26"/>
+      <c r="K188" s="26"/>
+      <c r="L188" s="26"/>
+      <c r="M188" s="27"/>
+    </row>
+    <row r="189" spans="1:15" ht="19.5" customHeight="1">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
       <c r="C189" s="36"/>
@@ -8045,7 +8929,7 @@
       <c r="E189" s="36"/>
       <c r="F189" s="36"/>
     </row>
-    <row r="190" spans="1:6" ht="19.5" customHeight="1">
+    <row r="190" spans="1:15" ht="19.5" customHeight="1">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
       <c r="C190" s="36"/>
@@ -8053,7 +8937,7 @@
       <c r="E190" s="36"/>
       <c r="F190" s="36"/>
     </row>
-    <row r="191" spans="1:6" ht="19.5" customHeight="1">
+    <row r="191" spans="1:15" ht="19.5" customHeight="1">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
       <c r="C191" s="36"/>
@@ -8061,7 +8945,7 @@
       <c r="E191" s="36"/>
       <c r="F191" s="36"/>
     </row>
-    <row r="192" spans="1:6" ht="19.5" customHeight="1">
+    <row r="192" spans="1:15" ht="19.5" customHeight="1">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
       <c r="C192" s="36"/>
@@ -15100,6 +15984,78 @@
       <c r="D1071" s="36"/>
       <c r="E1071" s="36"/>
       <c r="F1071" s="36"/>
+    </row>
+    <row r="1072" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A1072" s="36"/>
+      <c r="B1072" s="36"/>
+      <c r="C1072" s="36"/>
+      <c r="D1072" s="36"/>
+      <c r="E1072" s="36"/>
+      <c r="F1072" s="36"/>
+    </row>
+    <row r="1073" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A1073" s="36"/>
+      <c r="B1073" s="36"/>
+      <c r="C1073" s="36"/>
+      <c r="D1073" s="36"/>
+      <c r="E1073" s="36"/>
+      <c r="F1073" s="36"/>
+    </row>
+    <row r="1074" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A1074" s="36"/>
+      <c r="B1074" s="36"/>
+      <c r="C1074" s="36"/>
+      <c r="D1074" s="36"/>
+      <c r="E1074" s="36"/>
+      <c r="F1074" s="36"/>
+    </row>
+    <row r="1075" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A1075" s="36"/>
+      <c r="B1075" s="36"/>
+      <c r="C1075" s="36"/>
+      <c r="D1075" s="36"/>
+      <c r="E1075" s="36"/>
+      <c r="F1075" s="36"/>
+    </row>
+    <row r="1076" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A1076" s="36"/>
+      <c r="B1076" s="36"/>
+      <c r="C1076" s="36"/>
+      <c r="D1076" s="36"/>
+      <c r="E1076" s="36"/>
+      <c r="F1076" s="36"/>
+    </row>
+    <row r="1077" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A1077" s="36"/>
+      <c r="B1077" s="36"/>
+      <c r="C1077" s="36"/>
+      <c r="D1077" s="36"/>
+      <c r="E1077" s="36"/>
+      <c r="F1077" s="36"/>
+    </row>
+    <row r="1078" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A1078" s="36"/>
+      <c r="B1078" s="36"/>
+      <c r="C1078" s="36"/>
+      <c r="D1078" s="36"/>
+      <c r="E1078" s="36"/>
+      <c r="F1078" s="36"/>
+    </row>
+    <row r="1079" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A1079" s="36"/>
+      <c r="B1079" s="36"/>
+      <c r="C1079" s="36"/>
+      <c r="D1079" s="36"/>
+      <c r="E1079" s="36"/>
+      <c r="F1079" s="36"/>
+    </row>
+    <row r="1080" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A1080" s="36"/>
+      <c r="B1080" s="36"/>
+      <c r="C1080" s="36"/>
+      <c r="D1080" s="36"/>
+      <c r="E1080" s="36"/>
+      <c r="F1080" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
@@ -15136,18 +16092,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A1" s="113"/>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
+      <c r="A1" s="126"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
     </row>
     <row r="2" spans="1:12" ht="27.75" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
@@ -15312,20 +16268,20 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="27" customHeight="1">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
     </row>
     <row r="17" spans="1:13" ht="24" customHeight="1">
       <c r="A17" s="17" t="s">
@@ -15592,20 +16548,20 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="27" customHeight="1">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="112"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="125"/>
     </row>
     <row r="30" spans="1:13" ht="24" customHeight="1">
       <c r="A30" s="17" t="s">
@@ -15824,20 +16780,20 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:25" ht="27" customHeight="1">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="112"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="125"/>
     </row>
     <row r="41" spans="1:25" ht="24" customHeight="1">
       <c r="A41" s="17" t="s">
@@ -16103,20 +17059,20 @@
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="21" customHeight="1">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="111"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="111"/>
-      <c r="L52" s="112"/>
+      <c r="B52" s="124"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="125"/>
     </row>
     <row r="53" spans="1:12" ht="24" customHeight="1">
       <c r="A53" s="17" t="s">
@@ -16290,20 +17246,20 @@
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:12" ht="27" customHeight="1">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="111"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="111"/>
-      <c r="L61" s="112"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="124"/>
+      <c r="K61" s="124"/>
+      <c r="L61" s="125"/>
     </row>
     <row r="62" spans="1:12" ht="24" customHeight="1">
       <c r="A62" s="17" t="s">
@@ -16482,20 +17438,20 @@
       <c r="L69" s="36"/>
     </row>
     <row r="70" spans="1:12" ht="27" customHeight="1">
-      <c r="A70" s="110" t="s">
+      <c r="A70" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="111"/>
-      <c r="C70" s="111"/>
-      <c r="D70" s="111"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="111"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="111"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="111"/>
-      <c r="K70" s="111"/>
-      <c r="L70" s="112"/>
+      <c r="B70" s="124"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="124"/>
+      <c r="J70" s="124"/>
+      <c r="K70" s="124"/>
+      <c r="L70" s="125"/>
     </row>
     <row r="71" spans="1:12" ht="24" customHeight="1">
       <c r="A71" s="17" t="s">
@@ -16654,20 +17610,20 @@
       <c r="L77" s="40"/>
     </row>
     <row r="78" spans="1:12" ht="27" customHeight="1">
-      <c r="A78" s="110" t="s">
+      <c r="A78" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="111"/>
-      <c r="C78" s="111"/>
-      <c r="D78" s="111"/>
-      <c r="E78" s="111"/>
-      <c r="F78" s="111"/>
-      <c r="G78" s="111"/>
-      <c r="H78" s="111"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="111"/>
-      <c r="K78" s="111"/>
-      <c r="L78" s="112"/>
+      <c r="B78" s="124"/>
+      <c r="C78" s="124"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="124"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="124"/>
+      <c r="J78" s="124"/>
+      <c r="K78" s="124"/>
+      <c r="L78" s="125"/>
     </row>
     <row r="79" spans="1:12" ht="24" customHeight="1">
       <c r="A79" s="17" t="s">
@@ -16788,20 +17744,20 @@
       <c r="L83" s="40"/>
     </row>
     <row r="84" spans="1:26" ht="27" customHeight="1">
-      <c r="A84" s="110" t="s">
+      <c r="A84" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="111"/>
-      <c r="C84" s="111"/>
-      <c r="D84" s="111"/>
-      <c r="E84" s="111"/>
-      <c r="F84" s="111"/>
-      <c r="G84" s="111"/>
-      <c r="H84" s="111"/>
-      <c r="I84" s="111"/>
-      <c r="J84" s="111"/>
-      <c r="K84" s="111"/>
-      <c r="L84" s="112"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="124"/>
+      <c r="I84" s="124"/>
+      <c r="J84" s="124"/>
+      <c r="K84" s="124"/>
+      <c r="L84" s="125"/>
     </row>
     <row r="85" spans="1:26" ht="24" customHeight="1">
       <c r="A85" s="17" t="s">
